--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\tubCloud\MA\TG_IR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\GitHub\TGA-FTIR-hyphenation-tool-kit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A70D090-3A7B-47F5-B85A-BD1487DA1945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA940BA-5707-4B22-B5DC-107A7FEF8071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -23,33 +23,19 @@
     <sheet name="hwhm_max" sheetId="6" r:id="rId8"/>
     <sheet name="height_max" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>figueiredo1999</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
   <si>
     <t>anhydrides</t>
@@ -112,9 +98,6 @@
     <t>carbonyls 2</t>
   </si>
   <si>
-    <t>h2o</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -149,6 +132,18 @@
   </si>
   <si>
     <t>almarri2009b</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>H2O</t>
   </si>
 </sst>
 </file>
@@ -550,157 +545,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
@@ -730,9 +725,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>390</v>
@@ -768,7 +763,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -788,9 +783,9 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>267</v>
@@ -814,9 +809,9 @@
         <v>847</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>257</v>
@@ -840,9 +835,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>245</v>
@@ -881,9 +876,9 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>263.66666666666663</v>
@@ -910,9 +905,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>280</v>
@@ -948,9 +943,9 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>291</v>
@@ -971,9 +966,9 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1">
         <v>427</v>
@@ -994,9 +989,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>275</v>
@@ -1032,9 +1027,9 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1079,9 +1074,9 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>95</v>
@@ -1132,9 +1127,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>95</v>
@@ -1177,6 +1172,20 @@
       </c>
       <c r="T16" s="1">
         <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1">
+        <v>380</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1195,9 +1204,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -1391,94 +1400,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -1581,235 +1590,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -1828,9 +1837,9 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -2024,94 +2033,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -2210,235 +2219,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -2457,9 +2466,9 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -2653,94 +2662,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -2843,235 +2852,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -3090,9 +3099,9 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -3286,94 +3295,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -3476,223 +3485,223 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -3882,7 +3891,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
@@ -4072,7 +4081,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -4275,9 +4284,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -4471,94 +4480,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -4661,235 +4670,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -4908,9 +4917,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -5104,94 +5113,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -5294,235 +5303,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -5541,9 +5550,9 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -5737,94 +5746,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -5927,235 +5936,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
@@ -6174,9 +6183,9 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -6370,94 +6379,94 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
       <c r="B2" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>co2</v>
+        <v>CO2</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="N2" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="S2" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>co</v>
+        <v>CO</v>
       </c>
       <c r="T2" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="U2" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="V2" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>h2o</v>
+        <v>H2O</v>
       </c>
       <c r="W2" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
@@ -6560,235 +6569,235 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\GitHub\TGA-FTIR-hyphenation-tool-kit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA940BA-5707-4B22-B5DC-107A7FEF8071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CCDB66-6FB6-4972-B182-F716BFA6F762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
-    <sheet name="hwhm_0" sheetId="3" r:id="rId2"/>
-    <sheet name="height_0" sheetId="2" r:id="rId3"/>
-    <sheet name="center_min" sheetId="5" r:id="rId4"/>
-    <sheet name="hwhm_min" sheetId="4" r:id="rId5"/>
-    <sheet name="height_min" sheetId="7" r:id="rId6"/>
-    <sheet name="center_max" sheetId="9" r:id="rId7"/>
-    <sheet name="hwhm_max" sheetId="6" r:id="rId8"/>
-    <sheet name="height_max" sheetId="8" r:id="rId9"/>
+    <sheet name="link" sheetId="10" r:id="rId2"/>
+    <sheet name="hwhm_0" sheetId="3" r:id="rId3"/>
+    <sheet name="height_0" sheetId="2" r:id="rId4"/>
+    <sheet name="center_min" sheetId="5" r:id="rId5"/>
+    <sheet name="hwhm_min" sheetId="4" r:id="rId6"/>
+    <sheet name="height_min" sheetId="7" r:id="rId7"/>
+    <sheet name="center_max" sheetId="9" r:id="rId8"/>
+    <sheet name="hwhm_max" sheetId="6" r:id="rId9"/>
+    <sheet name="height_max" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -134,9 +135,6 @@
     <t>almarri2009b</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -222,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -231,6 +229,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,67 +629,67 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1174,19 +1173,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1">
-        <v>245</v>
-      </c>
-      <c r="D17" s="1">
-        <v>380</v>
-      </c>
-      <c r="E17" s="1">
-        <v>500</v>
-      </c>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F17" s="8"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V13">
@@ -1196,7 +1186,1273 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C02276-5893-45C5-8032-5F138C27CB79}">
+  <dimension ref="A1:AV41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
+        <v>group</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
+        <v>adsorbed</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
+        <v>carboxylic 1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
+        <v>carboxylic 2</v>
+      </c>
+      <c r="E1" t="str">
+        <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
+        <v>anhydrides</v>
+      </c>
+      <c r="F1" t="str">
+        <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
+        <v>peroxides</v>
+      </c>
+      <c r="G1" t="str">
+        <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
+        <v>unassigned</v>
+      </c>
+      <c r="H1" t="str">
+        <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
+        <v>lactones 1</v>
+      </c>
+      <c r="I1" t="str">
+        <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
+        <v>lactones 2</v>
+      </c>
+      <c r="J1" t="str">
+        <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
+        <v>carbonyl 1</v>
+      </c>
+      <c r="K1" t="str">
+        <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
+        <v>carboxylic 1</v>
+      </c>
+      <c r="L1" t="str">
+        <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
+        <v>carboxylic 2</v>
+      </c>
+      <c r="M1" t="str">
+        <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
+        <v>anhydrides</v>
+      </c>
+      <c r="N1" t="str">
+        <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
+        <v>hydroxyl</v>
+      </c>
+      <c r="O1" t="str">
+        <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
+        <v>phenols</v>
+      </c>
+      <c r="P1" t="str">
+        <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
+        <v>carbonyls 1</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
+        <v>carbonyls 2</v>
+      </c>
+      <c r="R1" t="str">
+        <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
+        <v>ether</v>
+      </c>
+      <c r="S1" t="str">
+        <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
+        <v>pyrones</v>
+      </c>
+      <c r="T1" t="str">
+        <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
+        <v>adsorbed</v>
+      </c>
+      <c r="U1" t="str">
+        <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
+        <v>unassigned 1</v>
+      </c>
+      <c r="V1" t="str">
+        <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
+        <v>unassigned 2</v>
+      </c>
+      <c r="W1" t="str">
+        <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
+        <v/>
+      </c>
+      <c r="X1" t="str">
+        <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
+        <v/>
+      </c>
+      <c r="Y1" t="str">
+        <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
+        <v/>
+      </c>
+      <c r="Z1" t="str">
+        <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
+        <v/>
+      </c>
+      <c r="AA1" t="str">
+        <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
+        <v/>
+      </c>
+      <c r="AB1" t="str">
+        <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
+        <v/>
+      </c>
+      <c r="AC1" t="str">
+        <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
+        <v/>
+      </c>
+      <c r="AD1" t="str">
+        <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
+        <v/>
+      </c>
+      <c r="AE1" t="str">
+        <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
+        <v/>
+      </c>
+      <c r="AF1" t="str">
+        <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
+        <v/>
+      </c>
+      <c r="AG1" t="str">
+        <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
+        <v/>
+      </c>
+      <c r="AH1" t="str">
+        <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
+        <v/>
+      </c>
+      <c r="AI1" t="str">
+        <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
+        <v/>
+      </c>
+      <c r="AJ1" t="str">
+        <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
+        <v/>
+      </c>
+      <c r="AK1" t="str">
+        <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
+        <v/>
+      </c>
+      <c r="AL1" t="str">
+        <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
+        <v/>
+      </c>
+      <c r="AM1" t="str">
+        <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
+        <v/>
+      </c>
+      <c r="AN1" t="str">
+        <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
+        <v/>
+      </c>
+      <c r="AO1" t="str">
+        <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
+        <v/>
+      </c>
+      <c r="AP1" t="str">
+        <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
+        <v/>
+      </c>
+      <c r="AQ1" t="str">
+        <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
+        <v/>
+      </c>
+      <c r="AR1" t="str">
+        <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
+        <v/>
+      </c>
+      <c r="AS1" t="str">
+        <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
+        <v/>
+      </c>
+      <c r="AT1" t="str">
+        <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
+        <v/>
+      </c>
+      <c r="AU1" t="str">
+        <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
+        <v/>
+      </c>
+      <c r="AV1" t="str">
+        <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
+        <v>gas</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
+        <v>CO</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
+        <v>CO</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
+        <v>CO</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
+        <v>CO</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
+        <v>CO</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
+        <v>CO</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
+        <v>CO</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
+        <v>CO</v>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
+        <v>CO</v>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
+        <v>H2O</v>
+      </c>
+      <c r="U2" t="str">
+        <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
+        <v>H2O</v>
+      </c>
+      <c r="V2" t="str">
+        <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
+        <v>H2O</v>
+      </c>
+      <c r="W2" t="str">
+        <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="str">
+        <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
+        <v/>
+      </c>
+      <c r="AL2" t="str">
+        <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="str">
+        <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
+        <v/>
+      </c>
+      <c r="AN2" t="str">
+        <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="str">
+        <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
+        <v/>
+      </c>
+      <c r="AP2" t="str">
+        <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="str">
+        <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
+        <v>almarri2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
+        <v>ducuosso2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
+        <v>figueiredo1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
+        <v>figueiredo2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
+        <v>gorghulo2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
+        <v>li2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
+        <v>morales2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
+        <v>na2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
+        <v>samant2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
+        <v>szymanski2002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
+        <v>zhou2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
+        <v>almarri2009b</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
+        <v>saal2020a</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
+        <v>saal2020b</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AB40E-2FFC-42C2-AD78-D9FFEE5C8809}">
+  <dimension ref="A1:AV41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
+        <v>group</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
+        <v>adsorbed</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
+        <v>carboxylic 1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
+        <v>carboxylic 2</v>
+      </c>
+      <c r="E1" t="str">
+        <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
+        <v>anhydrides</v>
+      </c>
+      <c r="F1" t="str">
+        <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
+        <v>peroxides</v>
+      </c>
+      <c r="G1" t="str">
+        <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
+        <v>unassigned</v>
+      </c>
+      <c r="H1" t="str">
+        <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
+        <v>lactones 1</v>
+      </c>
+      <c r="I1" t="str">
+        <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
+        <v>lactones 2</v>
+      </c>
+      <c r="J1" t="str">
+        <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
+        <v>carbonyl 1</v>
+      </c>
+      <c r="K1" t="str">
+        <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
+        <v>carboxylic 1</v>
+      </c>
+      <c r="L1" t="str">
+        <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
+        <v>carboxylic 2</v>
+      </c>
+      <c r="M1" t="str">
+        <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
+        <v>anhydrides</v>
+      </c>
+      <c r="N1" t="str">
+        <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
+        <v>hydroxyl</v>
+      </c>
+      <c r="O1" t="str">
+        <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
+        <v>phenols</v>
+      </c>
+      <c r="P1" t="str">
+        <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
+        <v>carbonyls 1</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
+        <v>carbonyls 2</v>
+      </c>
+      <c r="R1" t="str">
+        <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
+        <v>ether</v>
+      </c>
+      <c r="S1" t="str">
+        <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
+        <v>pyrones</v>
+      </c>
+      <c r="T1" t="str">
+        <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
+        <v>adsorbed</v>
+      </c>
+      <c r="U1" t="str">
+        <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
+        <v>unassigned 1</v>
+      </c>
+      <c r="V1" t="str">
+        <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
+        <v>unassigned 2</v>
+      </c>
+      <c r="W1" t="str">
+        <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
+        <v/>
+      </c>
+      <c r="X1" t="str">
+        <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
+        <v/>
+      </c>
+      <c r="Y1" t="str">
+        <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
+        <v/>
+      </c>
+      <c r="Z1" t="str">
+        <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
+        <v/>
+      </c>
+      <c r="AA1" t="str">
+        <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
+        <v/>
+      </c>
+      <c r="AB1" t="str">
+        <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
+        <v/>
+      </c>
+      <c r="AC1" t="str">
+        <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
+        <v/>
+      </c>
+      <c r="AD1" t="str">
+        <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
+        <v/>
+      </c>
+      <c r="AE1" t="str">
+        <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
+        <v/>
+      </c>
+      <c r="AF1" t="str">
+        <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
+        <v/>
+      </c>
+      <c r="AG1" t="str">
+        <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
+        <v/>
+      </c>
+      <c r="AH1" t="str">
+        <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
+        <v/>
+      </c>
+      <c r="AI1" t="str">
+        <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
+        <v/>
+      </c>
+      <c r="AJ1" t="str">
+        <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
+        <v/>
+      </c>
+      <c r="AK1" t="str">
+        <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
+        <v/>
+      </c>
+      <c r="AL1" t="str">
+        <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
+        <v/>
+      </c>
+      <c r="AM1" t="str">
+        <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
+        <v/>
+      </c>
+      <c r="AN1" t="str">
+        <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
+        <v/>
+      </c>
+      <c r="AO1" t="str">
+        <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
+        <v/>
+      </c>
+      <c r="AP1" t="str">
+        <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
+        <v/>
+      </c>
+      <c r="AQ1" t="str">
+        <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
+        <v/>
+      </c>
+      <c r="AR1" t="str">
+        <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
+        <v/>
+      </c>
+      <c r="AS1" t="str">
+        <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
+        <v/>
+      </c>
+      <c r="AT1" t="str">
+        <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
+        <v/>
+      </c>
+      <c r="AU1" t="str">
+        <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
+        <v/>
+      </c>
+      <c r="AV1" t="str">
+        <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
+        <v>gas</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
+        <v>CO2</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
+        <v>CO</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
+        <v>CO</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
+        <v>CO</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
+        <v>CO</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
+        <v>CO</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
+        <v>CO</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
+        <v>CO</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
+        <v>CO</v>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
+        <v>CO</v>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
+        <v>H2O</v>
+      </c>
+      <c r="U2" t="str">
+        <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
+        <v>H2O</v>
+      </c>
+      <c r="V2" t="str">
+        <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
+        <v>H2O</v>
+      </c>
+      <c r="W2" t="str">
+        <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
+        <v/>
+      </c>
+      <c r="AK2" t="str">
+        <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
+        <v/>
+      </c>
+      <c r="AL2" t="str">
+        <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
+        <v/>
+      </c>
+      <c r="AM2" t="str">
+        <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
+        <v/>
+      </c>
+      <c r="AN2" t="str">
+        <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
+        <v/>
+      </c>
+      <c r="AO2" t="str">
+        <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
+        <v/>
+      </c>
+      <c r="AP2" t="str">
+        <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
+        <v/>
+      </c>
+      <c r="AQ2" t="str">
+        <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
+        <v>almarri2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
+        <v>ducuosso2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
+        <v>figueiredo1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
+        <v>figueiredo2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
+        <v>gorghulo2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
+        <v>li2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
+        <v>morales2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
+        <v>na2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
+        <v>samant2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
+        <v>szymanski2002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
+        <v>zhou2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
+        <v>almarri2009b</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
+        <v>saal2020a</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
+        <v>saal2020b</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B49426-40FA-4A8E-9024-66BDA98D0A8E}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -1677,7 +2933,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1829,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C6DE0-A18F-46F1-A139-D60050F2DE41}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -2306,7 +3562,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -2458,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0093193B-42D2-4CB5-99F9-AFD01B54638D}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -2939,7 +4195,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3091,7 +4347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD939A53-4329-499E-A0E8-36AD8584F372}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -3572,7 +4828,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -4276,7 +5532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B2B75D-4D58-48A6-8AE4-061359CFFBFC}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -4757,7 +6013,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -4909,7 +6165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D46676C-6D47-439D-8E91-C7448FAFDD09}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -5390,7 +6646,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -5542,7 +6798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A734E0C-7A4B-428A-95DC-306859B6AB0F}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
@@ -6023,640 +7279,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C02276-5893-45C5-8032-5F138C27CB79}">
-  <dimension ref="A1:AV41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
-        <v>group</v>
-      </c>
-      <c r="B1" t="str">
-        <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
-      </c>
-      <c r="C1" t="str">
-        <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
-      </c>
-      <c r="D1" t="str">
-        <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
-      </c>
-      <c r="E1" t="str">
-        <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
-        <v>anhydrides</v>
-      </c>
-      <c r="F1" t="str">
-        <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
-        <v>peroxides</v>
-      </c>
-      <c r="G1" t="str">
-        <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
-      </c>
-      <c r="H1" t="str">
-        <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
-      </c>
-      <c r="I1" t="str">
-        <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
-      </c>
-      <c r="J1" t="str">
-        <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
-      </c>
-      <c r="K1" t="str">
-        <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
-      </c>
-      <c r="L1" t="str">
-        <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
-      </c>
-      <c r="M1" t="str">
-        <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
-        <v>anhydrides</v>
-      </c>
-      <c r="N1" t="str">
-        <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
-        <v>hydroxyl</v>
-      </c>
-      <c r="O1" t="str">
-        <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
-        <v>phenols</v>
-      </c>
-      <c r="P1" t="str">
-        <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
-      </c>
-      <c r="R1" t="str">
-        <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
-        <v>ether</v>
-      </c>
-      <c r="S1" t="str">
-        <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
-        <v>pyrones</v>
-      </c>
-      <c r="T1" t="str">
-        <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
-      </c>
-      <c r="U1" t="str">
-        <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
-      </c>
-      <c r="V1" t="str">
-        <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
-      </c>
-      <c r="W1" t="str">
-        <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
-        <v/>
-      </c>
-      <c r="X1" t="str">
-        <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
-        <v/>
-      </c>
-      <c r="Y1" t="str">
-        <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
-        <v/>
-      </c>
-      <c r="Z1" t="str">
-        <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
-        <v/>
-      </c>
-      <c r="AA1" t="str">
-        <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
-        <v/>
-      </c>
-      <c r="AB1" t="str">
-        <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
-        <v/>
-      </c>
-      <c r="AC1" t="str">
-        <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
-        <v/>
-      </c>
-      <c r="AD1" t="str">
-        <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
-        <v/>
-      </c>
-      <c r="AE1" t="str">
-        <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
-        <v/>
-      </c>
-      <c r="AF1" t="str">
-        <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
-        <v/>
-      </c>
-      <c r="AG1" t="str">
-        <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
-        <v/>
-      </c>
-      <c r="AH1" t="str">
-        <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
-        <v/>
-      </c>
-      <c r="AI1" t="str">
-        <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
-        <v/>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
-        <v/>
-      </c>
-      <c r="AK1" t="str">
-        <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
-        <v/>
-      </c>
-      <c r="AL1" t="str">
-        <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
-        <v/>
-      </c>
-      <c r="AM1" t="str">
-        <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
-        <v/>
-      </c>
-      <c r="AN1" t="str">
-        <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
-        <v/>
-      </c>
-      <c r="AO1" t="str">
-        <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
-        <v/>
-      </c>
-      <c r="AP1" t="str">
-        <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
-        <v/>
-      </c>
-      <c r="AQ1" t="str">
-        <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
-        <v/>
-      </c>
-      <c r="AR1" t="str">
-        <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
-        <v/>
-      </c>
-      <c r="AS1" t="str">
-        <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
-        <v/>
-      </c>
-      <c r="AT1" t="str">
-        <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
-        <v/>
-      </c>
-      <c r="AU1" t="str">
-        <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
-        <v/>
-      </c>
-      <c r="AV1" t="str">
-        <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
-        <v>gas</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="F2" t="str">
-        <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="H2" t="str">
-        <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
-        <v>CO2</v>
-      </c>
-      <c r="K2" t="str">
-        <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
-        <v>CO</v>
-      </c>
-      <c r="L2" t="str">
-        <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
-        <v>CO</v>
-      </c>
-      <c r="M2" t="str">
-        <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
-        <v>CO</v>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
-        <v>CO</v>
-      </c>
-      <c r="O2" t="str">
-        <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
-        <v>CO</v>
-      </c>
-      <c r="P2" t="str">
-        <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
-        <v>CO</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
-        <v>CO</v>
-      </c>
-      <c r="R2" t="str">
-        <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
-        <v>CO</v>
-      </c>
-      <c r="S2" t="str">
-        <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
-        <v>CO</v>
-      </c>
-      <c r="T2" t="str">
-        <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
-        <v>H2O</v>
-      </c>
-      <c r="U2" t="str">
-        <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
-        <v>H2O</v>
-      </c>
-      <c r="V2" t="str">
-        <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
-        <v>H2O</v>
-      </c>
-      <c r="W2" t="str">
-        <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
-        <v/>
-      </c>
-      <c r="X2" t="str">
-        <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
-        <v/>
-      </c>
-      <c r="AA2" t="str">
-        <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
-        <v/>
-      </c>
-      <c r="AD2" t="str">
-        <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
-        <v/>
-      </c>
-      <c r="AE2" t="str">
-        <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
-        <v/>
-      </c>
-      <c r="AF2" t="str">
-        <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
-        <v/>
-      </c>
-      <c r="AG2" t="str">
-        <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
-        <v/>
-      </c>
-      <c r="AH2" t="str">
-        <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
-        <v/>
-      </c>
-      <c r="AI2" t="str">
-        <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
-        <v/>
-      </c>
-      <c r="AJ2" t="str">
-        <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
-        <v/>
-      </c>
-      <c r="AK2" t="str">
-        <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
-        <v/>
-      </c>
-      <c r="AL2" t="str">
-        <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
-        <v/>
-      </c>
-      <c r="AM2" t="str">
-        <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
-        <v/>
-      </c>
-      <c r="AN2" t="str">
-        <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
-        <v/>
-      </c>
-      <c r="AO2" t="str">
-        <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
-        <v/>
-      </c>
-      <c r="AP2" t="str">
-        <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
-        <v/>
-      </c>
-      <c r="AQ2" t="str">
-        <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
-        <v/>
-      </c>
-      <c r="AR2" t="str">
-        <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
-        <v/>
-      </c>
-      <c r="AS2" t="str">
-        <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
-        <v/>
-      </c>
-      <c r="AT2" t="str">
-        <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
-        <v/>
-      </c>
-      <c r="AU2" t="str">
-        <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
-        <v>almarri2009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
-        <v>figueiredo1999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
-        <v>figueiredo2007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
-        <v>samant2004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
-        <v>szymanski2002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
-        <v>zhou2007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\GitHub\TGA-FTIR-hyphenation-tool-kit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CCDB66-6FB6-4972-B182-F716BFA6F762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66049CA2-F57B-4F63-877B-1BCDE24FAF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>H2O</t>
+  </si>
+  <si>
+    <t>wh</t>
   </si>
 </sst>
 </file>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AB40E-2FFC-42C2-AD78-D9FFEE5C8809}">
   <dimension ref="A1:AV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,11 +2293,17 @@
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>saal2020a</v>
       </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>saal2020b</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\GitHub\TGA-FTIR-hyphenation-tool-kit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Downloads\8PAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66049CA2-F57B-4F63-877B-1BCDE24FAF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C4E9D-0696-42A3-9391-8EE7A6AE0658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,25 @@
     <sheet name="hwhm_max" sheetId="6" r:id="rId9"/>
     <sheet name="height_max" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -73,12 +81,6 @@
   </si>
   <si>
     <t>szymanski2002</t>
-  </si>
-  <si>
-    <t>saal2020a</t>
-  </si>
-  <si>
-    <t>saal2020b</t>
   </si>
   <si>
     <t>carboxylic 1</t>
@@ -145,6 +147,12 @@
   </si>
   <si>
     <t>wh</t>
+  </si>
+  <si>
+    <t>dittmann2021</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -223,16 +231,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,157 +553,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
@@ -728,8 +751,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
+      <c r="A4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>390</v>
@@ -766,7 +789,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -786,7 +809,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
@@ -812,7 +835,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
@@ -838,7 +861,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -879,7 +902,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -908,8 +931,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
+      <c r="A10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>280</v>
@@ -946,7 +969,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -969,7 +992,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1">
@@ -992,7 +1015,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
@@ -1030,8 +1053,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
+      <c r="A14" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1076,110 +1099,58 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
         <v>95</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>245</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>380</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>500</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>635</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>785</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>255</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>410</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>530</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>670</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>790</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>870</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>960</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>90</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <v>210</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>95</v>
-      </c>
-      <c r="C16" s="1">
-        <v>245</v>
-      </c>
-      <c r="D16" s="1">
-        <v>380</v>
-      </c>
-      <c r="E16" s="1">
-        <v>500</v>
-      </c>
-      <c r="H16" s="3">
-        <v>635</v>
-      </c>
-      <c r="I16" s="3">
-        <v>785</v>
-      </c>
-      <c r="K16" s="3">
-        <v>255</v>
-      </c>
-      <c r="L16" s="3">
-        <v>410</v>
-      </c>
-      <c r="M16" s="1">
-        <v>530</v>
-      </c>
-      <c r="O16" s="3">
-        <v>670</v>
-      </c>
-      <c r="P16" s="3">
-        <v>790</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>870</v>
-      </c>
-      <c r="S16" s="1">
-        <v>960</v>
-      </c>
-      <c r="T16" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F17" s="8"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V13">
@@ -1191,629 +1162,729 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C02276-5893-45C5-8032-5F138C27CB79}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),1,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),1,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),1,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),1,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),1,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),1,"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -1824,635 +1895,658 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AB40E-2FFC-42C2-AD78-D9FFEE5C8809}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
+        <v>dittmann2021</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -2463,629 +2557,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B49426-40FA-4A8E-9024-66BDA98D0A8E}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),47.5,"")</f>
+        <v>47.5</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -3096,625 +3290,725 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C6DE0-A18F-46F1-A139-D60050F2DE41}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),0.5,"")</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -3725,629 +4019,897 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0093193B-42D2-4CB5-99F9-AFD01B54638D}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
+      <c r="B4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!B4),center_0!B4-50,"")</f>
+        <v/>
+      </c>
+      <c r="C4" s="1">
+        <f>IF(ISNUMBER(center_0!C4),center_0!C4-50,"")</f>
+        <v>340</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!D4),center_0!D4-50,"")</f>
+        <v/>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(ISNUMBER(center_0!E4),center_0!E4-50,"")</f>
+        <v>400</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(ISNUMBER(center_0!F4),center_0!F4-50,"")</f>
+        <v>480</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G4),center_0!G4-50,"")</f>
+        <v/>
+      </c>
+      <c r="H4" s="1">
+        <f>IF(ISNUMBER(center_0!H4),center_0!H4-50,"")</f>
+        <v>610</v>
+      </c>
+      <c r="I4" s="1">
+        <f>IF(ISNUMBER(center_0!I4),center_0!I4-50,"")</f>
+        <v>670</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J4),center_0!J4-50,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!K4),center_0!K4-50,"")</f>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!L4),center_0!L4-50,"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="1">
+        <f>IF(ISNUMBER(center_0!M4),center_0!M4-50,"")</f>
+        <v>540</v>
+      </c>
+      <c r="N4" s="1">
+        <f>IF(ISNUMBER(center_0!N4),center_0!N4-50,"")</f>
+        <v>570</v>
+      </c>
+      <c r="O4" s="1">
+        <f>IF(ISNUMBER(center_0!O4),center_0!O4-50,"")</f>
+        <v>700</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!P4),center_0!P4-50,"")</f>
+        <v/>
+      </c>
+      <c r="Q4" s="1">
+        <f>IF(ISNUMBER(center_0!Q4),center_0!Q4-50,"")</f>
+        <v>830</v>
+      </c>
+      <c r="R4" s="1">
+        <f>IF(ISNUMBER(center_0!R4),center_0!R4-50,"")</f>
+        <v>794</v>
+      </c>
+      <c r="S4" s="1">
+        <f>IF(ISNUMBER(center_0!S4),center_0!S4-50,"")</f>
+        <v>923</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!T4),center_0!T4-50,"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U4),center_0!U4-50,"")</f>
+        <v/>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V4),center_0!V4-50,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
+      <c r="B13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!B13),center_0!B13-50,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="1">
+        <f>IF(ISNUMBER(center_0!C13),center_0!C13-50,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!D13),center_0!D13-50,"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(ISNUMBER(center_0!E13),center_0!E13-50,"")</f>
+        <v>375</v>
+      </c>
+      <c r="F13" s="1">
+        <f>IF(ISNUMBER(center_0!F13),center_0!F13-50,"")</f>
+        <v>470</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G13),center_0!G13-50,"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="1">
+        <f>IF(ISNUMBER(center_0!H13),center_0!H13-50,"")</f>
+        <v>570</v>
+      </c>
+      <c r="I13" s="1">
+        <f>IF(ISNUMBER(center_0!I13),center_0!I13-50,"")</f>
+        <v>690</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J13),center_0!J13-50,"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="1">
+        <f>IF(ISNUMBER(center_0!K13),center_0!K13-50,"")</f>
+        <v>200</v>
+      </c>
+      <c r="L13" s="1">
+        <f>IF(ISNUMBER(center_0!L13),center_0!L13-50,"")</f>
+        <v>375</v>
+      </c>
+      <c r="M13" s="1">
+        <f>IF(ISNUMBER(center_0!M13),center_0!M13-50,"")</f>
+        <v>500</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N13),center_0!N13-50,"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="1">
+        <f>IF(ISNUMBER(center_0!O13),center_0!O13-50,"")</f>
+        <v>600</v>
+      </c>
+      <c r="P13" s="1">
+        <f>IF(ISNUMBER(center_0!P13),center_0!P13-50,"")</f>
+        <v>730</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!Q13),center_0!Q13-50,"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R13),center_0!R13-50,"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="1">
+        <f>IF(ISNUMBER(center_0!S13),center_0!S13-50,"")</f>
+        <v>880</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!T13),center_0!T13-50,"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U13),center_0!U13-50,"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V13),center_0!V13-50,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),center_0!B15-30,"")</f>
+        <v>65</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),center_0!C15-30,"")</f>
+        <v>215</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),center_0!D15-30,"")</f>
+        <v>350</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),center_0!E15-30,"")</f>
+        <v>470</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),center_0!F15-30,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),center_0!G15-30,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),center_0!H15-30,"")</f>
+        <v>605</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),center_0!I15-30,"")</f>
+        <v>755</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),center_0!J15-30,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),center_0!K15-30,"")</f>
+        <v>225</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),center_0!L15-30,"")</f>
+        <v>380</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),center_0!M15-30,"")</f>
+        <v>500</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),center_0!N15-30,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),center_0!O15-30,"")</f>
+        <v>640</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),center_0!P15-30,"")</f>
+        <v>760</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),center_0!Q15-30,"")</f>
+        <v>840</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),center_0!R15-30,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),center_0!S15-30,"")</f>
+        <v>930</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),center_0!T15-30,"")</f>
+        <v>60</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),center_0!U15-30,"")</f>
+        <v>180</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),center_0!V15-30,"")</f>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -4358,1181 +4920,1281 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD939A53-4329-499E-A0E8-36AD8584F372}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),0,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),0,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),0,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),0,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),0,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),0,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
+      <c r="B37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!B37),"",center_0!B37)</f>
+        <v/>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!C37),"",center_0!C37)</f>
+        <v/>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!D37),"",center_0!D37)</f>
+        <v/>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!E37),"",center_0!E37)</f>
+        <v/>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!F37),"",center_0!F37)</f>
+        <v/>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!G37),"",center_0!G37)</f>
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!H37),"",center_0!H37)</f>
+        <v/>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!I37),"",center_0!I37)</f>
+        <v/>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!J37),"",center_0!J37)</f>
+        <v/>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!K37),"",center_0!K37)</f>
+        <v/>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!L37),"",center_0!L37)</f>
+        <v/>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!M37),"",center_0!M37)</f>
+        <v/>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!N37),"",center_0!N37)</f>
+        <v/>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!O37),"",center_0!O37)</f>
+        <v/>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!P37),"",center_0!P37)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Q37),"",center_0!Q37)</f>
+        <v/>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!R37),"",center_0!R37)</f>
+        <v/>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!S37),"",center_0!S37)</f>
+        <v/>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!T37),"",center_0!T37)</f>
+        <v/>
+      </c>
+      <c r="U37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!U37),"",center_0!U37)</f>
+        <v/>
+      </c>
+      <c r="V37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!V37),"",center_0!V37)</f>
+        <v/>
+      </c>
+      <c r="W37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!W37),"",center_0!W37)</f>
+        <v/>
+      </c>
+      <c r="X37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!X37),"",center_0!X37)</f>
+        <v/>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Y37),"",center_0!Y37)</f>
+        <v/>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Z37),"",center_0!Z37)</f>
+        <v/>
+      </c>
+      <c r="AA37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AA37),"",center_0!AA37)</f>
+        <v/>
+      </c>
+      <c r="AB37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AB37),"",center_0!AB37)</f>
+        <v/>
+      </c>
+      <c r="AC37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AC37),"",center_0!AC37)</f>
+        <v/>
+      </c>
+      <c r="AD37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AD37),"",center_0!AD37)</f>
+        <v/>
+      </c>
+      <c r="AE37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AE37),"",center_0!AE37)</f>
+        <v/>
+      </c>
+      <c r="AF37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AF37),"",center_0!AF37)</f>
+        <v/>
+      </c>
+      <c r="AG37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AG37),"",center_0!AG37)</f>
+        <v/>
+      </c>
+      <c r="AH37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AH37),"",center_0!AH37)</f>
+        <v/>
+      </c>
+      <c r="AI37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AI37),"",center_0!AI37)</f>
+        <v/>
+      </c>
+      <c r="AJ37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AJ37),"",center_0!AJ37)</f>
+        <v/>
+      </c>
+      <c r="AK37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AK37),"",center_0!AK37)</f>
+        <v/>
+      </c>
+      <c r="AL37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AL37),"",center_0!AL37)</f>
+        <v/>
+      </c>
+      <c r="AM37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AM37),"",center_0!AM37)</f>
+        <v/>
+      </c>
+      <c r="AN37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AN37),"",center_0!AN37)</f>
+        <v/>
+      </c>
+      <c r="AO37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AO37),"",center_0!AO37)</f>
+        <v/>
+      </c>
+      <c r="AP37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AP37),"",center_0!AP37)</f>
+        <v/>
+      </c>
+      <c r="AQ37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AQ37),"",center_0!AQ37)</f>
+        <v/>
+      </c>
+      <c r="AR37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AR37),"",center_0!AR37)</f>
+        <v/>
+      </c>
+      <c r="AS37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AS37),"",center_0!AS37)</f>
+        <v/>
+      </c>
+      <c r="AT37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AT37),"",center_0!AT37)</f>
+        <v/>
+      </c>
+      <c r="AU37" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AU37),"",center_0!AU37)</f>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
+      <c r="B38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!B38),"",center_0!B38)</f>
+        <v/>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!C38),"",center_0!C38)</f>
+        <v/>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!D38),"",center_0!D38)</f>
+        <v/>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!E38),"",center_0!E38)</f>
+        <v/>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!F38),"",center_0!F38)</f>
+        <v/>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!G38),"",center_0!G38)</f>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!H38),"",center_0!H38)</f>
+        <v/>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!I38),"",center_0!I38)</f>
+        <v/>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!J38),"",center_0!J38)</f>
+        <v/>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!K38),"",center_0!K38)</f>
+        <v/>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!L38),"",center_0!L38)</f>
+        <v/>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!M38),"",center_0!M38)</f>
+        <v/>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!N38),"",center_0!N38)</f>
+        <v/>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!O38),"",center_0!O38)</f>
+        <v/>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!P38),"",center_0!P38)</f>
+        <v/>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Q38),"",center_0!Q38)</f>
+        <v/>
+      </c>
+      <c r="R38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!R38),"",center_0!R38)</f>
+        <v/>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!S38),"",center_0!S38)</f>
+        <v/>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!T38),"",center_0!T38)</f>
+        <v/>
+      </c>
+      <c r="U38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!U38),"",center_0!U38)</f>
+        <v/>
+      </c>
+      <c r="V38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!V38),"",center_0!V38)</f>
+        <v/>
+      </c>
+      <c r="W38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!W38),"",center_0!W38)</f>
+        <v/>
+      </c>
+      <c r="X38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!X38),"",center_0!X38)</f>
+        <v/>
+      </c>
+      <c r="Y38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Y38),"",center_0!Y38)</f>
+        <v/>
+      </c>
+      <c r="Z38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Z38),"",center_0!Z38)</f>
+        <v/>
+      </c>
+      <c r="AA38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AA38),"",center_0!AA38)</f>
+        <v/>
+      </c>
+      <c r="AB38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AB38),"",center_0!AB38)</f>
+        <v/>
+      </c>
+      <c r="AC38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AC38),"",center_0!AC38)</f>
+        <v/>
+      </c>
+      <c r="AD38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AD38),"",center_0!AD38)</f>
+        <v/>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AE38),"",center_0!AE38)</f>
+        <v/>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AF38),"",center_0!AF38)</f>
+        <v/>
+      </c>
+      <c r="AG38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AG38),"",center_0!AG38)</f>
+        <v/>
+      </c>
+      <c r="AH38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AH38),"",center_0!AH38)</f>
+        <v/>
+      </c>
+      <c r="AI38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AI38),"",center_0!AI38)</f>
+        <v/>
+      </c>
+      <c r="AJ38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AJ38),"",center_0!AJ38)</f>
+        <v/>
+      </c>
+      <c r="AK38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AK38),"",center_0!AK38)</f>
+        <v/>
+      </c>
+      <c r="AL38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AL38),"",center_0!AL38)</f>
+        <v/>
+      </c>
+      <c r="AM38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AM38),"",center_0!AM38)</f>
+        <v/>
+      </c>
+      <c r="AN38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AN38),"",center_0!AN38)</f>
+        <v/>
+      </c>
+      <c r="AO38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AO38),"",center_0!AO38)</f>
+        <v/>
+      </c>
+      <c r="AP38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AP38),"",center_0!AP38)</f>
+        <v/>
+      </c>
+      <c r="AQ38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AQ38),"",center_0!AQ38)</f>
+        <v/>
+      </c>
+      <c r="AR38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AR38),"",center_0!AR38)</f>
+        <v/>
+      </c>
+      <c r="AS38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AS38),"",center_0!AS38)</f>
+        <v/>
+      </c>
+      <c r="AT38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AT38),"",center_0!AT38)</f>
+        <v/>
+      </c>
+      <c r="AU38" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AU38),"",center_0!AU38)</f>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <f>IF(ISBLANK(center_0!B39),"",center_0!B39)</f>
         <v/>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <f>IF(ISBLANK(center_0!C39),"",center_0!C39)</f>
         <v/>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="1" t="str">
         <f>IF(ISBLANK(center_0!D39),"",center_0!D39)</f>
         <v/>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="1" t="str">
         <f>IF(ISBLANK(center_0!E39),"",center_0!E39)</f>
         <v/>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="1" t="str">
         <f>IF(ISBLANK(center_0!F39),"",center_0!F39)</f>
         <v/>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="1" t="str">
         <f>IF(ISBLANK(center_0!G39),"",center_0!G39)</f>
         <v/>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="1" t="str">
         <f>IF(ISBLANK(center_0!H39),"",center_0!H39)</f>
         <v/>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="1" t="str">
         <f>IF(ISBLANK(center_0!I39),"",center_0!I39)</f>
         <v/>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="1" t="str">
         <f>IF(ISBLANK(center_0!J39),"",center_0!J39)</f>
         <v/>
       </c>
-      <c r="K39" t="str">
+      <c r="K39" s="1" t="str">
         <f>IF(ISBLANK(center_0!K39),"",center_0!K39)</f>
         <v/>
       </c>
-      <c r="L39" t="str">
+      <c r="L39" s="1" t="str">
         <f>IF(ISBLANK(center_0!L39),"",center_0!L39)</f>
         <v/>
       </c>
-      <c r="M39" t="str">
+      <c r="M39" s="1" t="str">
         <f>IF(ISBLANK(center_0!M39),"",center_0!M39)</f>
         <v/>
       </c>
-      <c r="N39" t="str">
+      <c r="N39" s="1" t="str">
         <f>IF(ISBLANK(center_0!N39),"",center_0!N39)</f>
         <v/>
       </c>
-      <c r="O39" t="str">
+      <c r="O39" s="1" t="str">
         <f>IF(ISBLANK(center_0!O39),"",center_0!O39)</f>
         <v/>
       </c>
-      <c r="P39" t="str">
+      <c r="P39" s="1" t="str">
         <f>IF(ISBLANK(center_0!P39),"",center_0!P39)</f>
         <v/>
       </c>
-      <c r="Q39" t="str">
+      <c r="Q39" s="1" t="str">
         <f>IF(ISBLANK(center_0!Q39),"",center_0!Q39)</f>
         <v/>
       </c>
-      <c r="R39" t="str">
+      <c r="R39" s="1" t="str">
         <f>IF(ISBLANK(center_0!R39),"",center_0!R39)</f>
         <v/>
       </c>
-      <c r="S39" t="str">
+      <c r="S39" s="1" t="str">
         <f>IF(ISBLANK(center_0!S39),"",center_0!S39)</f>
         <v/>
       </c>
-      <c r="T39" t="str">
+      <c r="T39" s="1" t="str">
         <f>IF(ISBLANK(center_0!T39),"",center_0!T39)</f>
         <v/>
       </c>
-      <c r="U39" t="str">
+      <c r="U39" s="1" t="str">
         <f>IF(ISBLANK(center_0!U39),"",center_0!U39)</f>
         <v/>
       </c>
-      <c r="V39" t="str">
+      <c r="V39" s="1" t="str">
         <f>IF(ISBLANK(center_0!V39),"",center_0!V39)</f>
         <v/>
       </c>
-      <c r="W39" t="str">
+      <c r="W39" s="1" t="str">
         <f>IF(ISBLANK(center_0!W39),"",center_0!W39)</f>
         <v/>
       </c>
-      <c r="X39" t="str">
+      <c r="X39" s="1" t="str">
         <f>IF(ISBLANK(center_0!X39),"",center_0!X39)</f>
         <v/>
       </c>
-      <c r="Y39" t="str">
+      <c r="Y39" s="1" t="str">
         <f>IF(ISBLANK(center_0!Y39),"",center_0!Y39)</f>
         <v/>
       </c>
-      <c r="Z39" t="str">
+      <c r="Z39" s="1" t="str">
         <f>IF(ISBLANK(center_0!Z39),"",center_0!Z39)</f>
         <v/>
       </c>
-      <c r="AA39" t="str">
+      <c r="AA39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AA39),"",center_0!AA39)</f>
         <v/>
       </c>
-      <c r="AB39" t="str">
+      <c r="AB39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AB39),"",center_0!AB39)</f>
         <v/>
       </c>
-      <c r="AC39" t="str">
+      <c r="AC39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AC39),"",center_0!AC39)</f>
         <v/>
       </c>
-      <c r="AD39" t="str">
+      <c r="AD39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AD39),"",center_0!AD39)</f>
         <v/>
       </c>
-      <c r="AE39" t="str">
+      <c r="AE39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AE39),"",center_0!AE39)</f>
         <v/>
       </c>
-      <c r="AF39" t="str">
+      <c r="AF39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AF39),"",center_0!AF39)</f>
         <v/>
       </c>
-      <c r="AG39" t="str">
+      <c r="AG39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AG39),"",center_0!AG39)</f>
         <v/>
       </c>
-      <c r="AH39" t="str">
+      <c r="AH39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AH39),"",center_0!AH39)</f>
         <v/>
       </c>
-      <c r="AI39" t="str">
+      <c r="AI39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AI39),"",center_0!AI39)</f>
         <v/>
       </c>
-      <c r="AJ39" t="str">
+      <c r="AJ39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AJ39),"",center_0!AJ39)</f>
         <v/>
       </c>
-      <c r="AK39" t="str">
+      <c r="AK39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AK39),"",center_0!AK39)</f>
         <v/>
       </c>
-      <c r="AL39" t="str">
+      <c r="AL39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AL39),"",center_0!AL39)</f>
         <v/>
       </c>
-      <c r="AM39" t="str">
+      <c r="AM39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AM39),"",center_0!AM39)</f>
         <v/>
       </c>
-      <c r="AN39" t="str">
+      <c r="AN39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AN39),"",center_0!AN39)</f>
         <v/>
       </c>
-      <c r="AO39" t="str">
+      <c r="AO39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AO39),"",center_0!AO39)</f>
         <v/>
       </c>
-      <c r="AP39" t="str">
+      <c r="AP39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AP39),"",center_0!AP39)</f>
         <v/>
       </c>
-      <c r="AQ39" t="str">
+      <c r="AQ39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AQ39),"",center_0!AQ39)</f>
         <v/>
       </c>
-      <c r="AR39" t="str">
+      <c r="AR39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AR39),"",center_0!AR39)</f>
         <v/>
       </c>
-      <c r="AS39" t="str">
+      <c r="AS39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AS39),"",center_0!AS39)</f>
         <v/>
       </c>
-      <c r="AT39" t="str">
+      <c r="AT39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AT39),"",center_0!AT39)</f>
         <v/>
       </c>
-      <c r="AU39" t="str">
+      <c r="AU39" s="1" t="str">
         <f>IF(ISBLANK(center_0!AU39),"",center_0!AU39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-      <c r="B40" t="str">
-        <f>IF(ISBLANK(center_0!B40),"",center_0!B40)</f>
-        <v/>
-      </c>
-      <c r="C40" t="str">
-        <f>IF(ISBLANK(center_0!C40),"",center_0!C40)</f>
-        <v/>
-      </c>
-      <c r="D40" t="str">
-        <f>IF(ISBLANK(center_0!D40),"",center_0!D40)</f>
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <f>IF(ISBLANK(center_0!E40),"",center_0!E40)</f>
-        <v/>
-      </c>
-      <c r="F40" t="str">
-        <f>IF(ISBLANK(center_0!F40),"",center_0!F40)</f>
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <f>IF(ISBLANK(center_0!G40),"",center_0!G40)</f>
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <f>IF(ISBLANK(center_0!H40),"",center_0!H40)</f>
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <f>IF(ISBLANK(center_0!I40),"",center_0!I40)</f>
-        <v/>
-      </c>
-      <c r="J40" t="str">
-        <f>IF(ISBLANK(center_0!J40),"",center_0!J40)</f>
-        <v/>
-      </c>
-      <c r="K40" t="str">
-        <f>IF(ISBLANK(center_0!K40),"",center_0!K40)</f>
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <f>IF(ISBLANK(center_0!L40),"",center_0!L40)</f>
-        <v/>
-      </c>
-      <c r="M40" t="str">
-        <f>IF(ISBLANK(center_0!M40),"",center_0!M40)</f>
-        <v/>
-      </c>
-      <c r="N40" t="str">
-        <f>IF(ISBLANK(center_0!N40),"",center_0!N40)</f>
-        <v/>
-      </c>
-      <c r="O40" t="str">
-        <f>IF(ISBLANK(center_0!O40),"",center_0!O40)</f>
-        <v/>
-      </c>
-      <c r="P40" t="str">
-        <f>IF(ISBLANK(center_0!P40),"",center_0!P40)</f>
-        <v/>
-      </c>
-      <c r="Q40" t="str">
-        <f>IF(ISBLANK(center_0!Q40),"",center_0!Q40)</f>
-        <v/>
-      </c>
-      <c r="R40" t="str">
-        <f>IF(ISBLANK(center_0!R40),"",center_0!R40)</f>
-        <v/>
-      </c>
-      <c r="S40" t="str">
-        <f>IF(ISBLANK(center_0!S40),"",center_0!S40)</f>
-        <v/>
-      </c>
-      <c r="T40" t="str">
-        <f>IF(ISBLANK(center_0!T40),"",center_0!T40)</f>
-        <v/>
-      </c>
-      <c r="U40" t="str">
-        <f>IF(ISBLANK(center_0!U40),"",center_0!U40)</f>
-        <v/>
-      </c>
-      <c r="V40" t="str">
-        <f>IF(ISBLANK(center_0!V40),"",center_0!V40)</f>
-        <v/>
-      </c>
-      <c r="W40" t="str">
-        <f>IF(ISBLANK(center_0!W40),"",center_0!W40)</f>
-        <v/>
-      </c>
-      <c r="X40" t="str">
-        <f>IF(ISBLANK(center_0!X40),"",center_0!X40)</f>
-        <v/>
-      </c>
-      <c r="Y40" t="str">
-        <f>IF(ISBLANK(center_0!Y40),"",center_0!Y40)</f>
-        <v/>
-      </c>
-      <c r="Z40" t="str">
-        <f>IF(ISBLANK(center_0!Z40),"",center_0!Z40)</f>
-        <v/>
-      </c>
-      <c r="AA40" t="str">
-        <f>IF(ISBLANK(center_0!AA40),"",center_0!AA40)</f>
-        <v/>
-      </c>
-      <c r="AB40" t="str">
-        <f>IF(ISBLANK(center_0!AB40),"",center_0!AB40)</f>
-        <v/>
-      </c>
-      <c r="AC40" t="str">
-        <f>IF(ISBLANK(center_0!AC40),"",center_0!AC40)</f>
-        <v/>
-      </c>
-      <c r="AD40" t="str">
-        <f>IF(ISBLANK(center_0!AD40),"",center_0!AD40)</f>
-        <v/>
-      </c>
-      <c r="AE40" t="str">
-        <f>IF(ISBLANK(center_0!AE40),"",center_0!AE40)</f>
-        <v/>
-      </c>
-      <c r="AF40" t="str">
-        <f>IF(ISBLANK(center_0!AF40),"",center_0!AF40)</f>
-        <v/>
-      </c>
-      <c r="AG40" t="str">
-        <f>IF(ISBLANK(center_0!AG40),"",center_0!AG40)</f>
-        <v/>
-      </c>
-      <c r="AH40" t="str">
-        <f>IF(ISBLANK(center_0!AH40),"",center_0!AH40)</f>
-        <v/>
-      </c>
-      <c r="AI40" t="str">
-        <f>IF(ISBLANK(center_0!AI40),"",center_0!AI40)</f>
-        <v/>
-      </c>
-      <c r="AJ40" t="str">
-        <f>IF(ISBLANK(center_0!AJ40),"",center_0!AJ40)</f>
-        <v/>
-      </c>
-      <c r="AK40" t="str">
-        <f>IF(ISBLANK(center_0!AK40),"",center_0!AK40)</f>
-        <v/>
-      </c>
-      <c r="AL40" t="str">
-        <f>IF(ISBLANK(center_0!AL40),"",center_0!AL40)</f>
-        <v/>
-      </c>
-      <c r="AM40" t="str">
-        <f>IF(ISBLANK(center_0!AM40),"",center_0!AM40)</f>
-        <v/>
-      </c>
-      <c r="AN40" t="str">
-        <f>IF(ISBLANK(center_0!AN40),"",center_0!AN40)</f>
-        <v/>
-      </c>
-      <c r="AO40" t="str">
-        <f>IF(ISBLANK(center_0!AO40),"",center_0!AO40)</f>
-        <v/>
-      </c>
-      <c r="AP40" t="str">
-        <f>IF(ISBLANK(center_0!AP40),"",center_0!AP40)</f>
-        <v/>
-      </c>
-      <c r="AQ40" t="str">
-        <f>IF(ISBLANK(center_0!AQ40),"",center_0!AQ40)</f>
-        <v/>
-      </c>
-      <c r="AR40" t="str">
-        <f>IF(ISBLANK(center_0!AR40),"",center_0!AR40)</f>
-        <v/>
-      </c>
-      <c r="AS40" t="str">
-        <f>IF(ISBLANK(center_0!AS40),"",center_0!AS40)</f>
-        <v/>
-      </c>
-      <c r="AT40" t="str">
-        <f>IF(ISBLANK(center_0!AT40),"",center_0!AT40)</f>
-        <v/>
-      </c>
-      <c r="AU40" t="str">
-        <f>IF(ISBLANK(center_0!AU40),"",center_0!AU40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
-        <v/>
-      </c>
-      <c r="B41" t="str">
-        <f>IF(ISBLANK(center_0!B41),"",center_0!B41)</f>
-        <v/>
-      </c>
-      <c r="C41" t="str">
-        <f>IF(ISBLANK(center_0!C41),"",center_0!C41)</f>
-        <v/>
-      </c>
-      <c r="D41" t="str">
-        <f>IF(ISBLANK(center_0!D41),"",center_0!D41)</f>
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <f>IF(ISBLANK(center_0!E41),"",center_0!E41)</f>
-        <v/>
-      </c>
-      <c r="F41" t="str">
-        <f>IF(ISBLANK(center_0!F41),"",center_0!F41)</f>
-        <v/>
-      </c>
-      <c r="G41" t="str">
-        <f>IF(ISBLANK(center_0!G41),"",center_0!G41)</f>
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <f>IF(ISBLANK(center_0!H41),"",center_0!H41)</f>
-        <v/>
-      </c>
-      <c r="I41" t="str">
-        <f>IF(ISBLANK(center_0!I41),"",center_0!I41)</f>
-        <v/>
-      </c>
-      <c r="J41" t="str">
-        <f>IF(ISBLANK(center_0!J41),"",center_0!J41)</f>
-        <v/>
-      </c>
-      <c r="K41" t="str">
-        <f>IF(ISBLANK(center_0!K41),"",center_0!K41)</f>
-        <v/>
-      </c>
-      <c r="L41" t="str">
-        <f>IF(ISBLANK(center_0!L41),"",center_0!L41)</f>
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <f>IF(ISBLANK(center_0!M41),"",center_0!M41)</f>
-        <v/>
-      </c>
-      <c r="N41" t="str">
-        <f>IF(ISBLANK(center_0!N41),"",center_0!N41)</f>
-        <v/>
-      </c>
-      <c r="O41" t="str">
-        <f>IF(ISBLANK(center_0!O41),"",center_0!O41)</f>
-        <v/>
-      </c>
-      <c r="P41" t="str">
-        <f>IF(ISBLANK(center_0!P41),"",center_0!P41)</f>
-        <v/>
-      </c>
-      <c r="Q41" t="str">
-        <f>IF(ISBLANK(center_0!Q41),"",center_0!Q41)</f>
-        <v/>
-      </c>
-      <c r="R41" t="str">
-        <f>IF(ISBLANK(center_0!R41),"",center_0!R41)</f>
-        <v/>
-      </c>
-      <c r="S41" t="str">
-        <f>IF(ISBLANK(center_0!S41),"",center_0!S41)</f>
-        <v/>
-      </c>
-      <c r="T41" t="str">
-        <f>IF(ISBLANK(center_0!T41),"",center_0!T41)</f>
-        <v/>
-      </c>
-      <c r="U41" t="str">
-        <f>IF(ISBLANK(center_0!U41),"",center_0!U41)</f>
-        <v/>
-      </c>
-      <c r="V41" t="str">
-        <f>IF(ISBLANK(center_0!V41),"",center_0!V41)</f>
-        <v/>
-      </c>
-      <c r="W41" t="str">
-        <f>IF(ISBLANK(center_0!W41),"",center_0!W41)</f>
-        <v/>
-      </c>
-      <c r="X41" t="str">
-        <f>IF(ISBLANK(center_0!X41),"",center_0!X41)</f>
-        <v/>
-      </c>
-      <c r="Y41" t="str">
-        <f>IF(ISBLANK(center_0!Y41),"",center_0!Y41)</f>
-        <v/>
-      </c>
-      <c r="Z41" t="str">
-        <f>IF(ISBLANK(center_0!Z41),"",center_0!Z41)</f>
-        <v/>
-      </c>
-      <c r="AA41" t="str">
-        <f>IF(ISBLANK(center_0!AA41),"",center_0!AA41)</f>
-        <v/>
-      </c>
-      <c r="AB41" t="str">
-        <f>IF(ISBLANK(center_0!AB41),"",center_0!AB41)</f>
-        <v/>
-      </c>
-      <c r="AC41" t="str">
-        <f>IF(ISBLANK(center_0!AC41),"",center_0!AC41)</f>
-        <v/>
-      </c>
-      <c r="AD41" t="str">
-        <f>IF(ISBLANK(center_0!AD41),"",center_0!AD41)</f>
-        <v/>
-      </c>
-      <c r="AE41" t="str">
-        <f>IF(ISBLANK(center_0!AE41),"",center_0!AE41)</f>
-        <v/>
-      </c>
-      <c r="AF41" t="str">
-        <f>IF(ISBLANK(center_0!AF41),"",center_0!AF41)</f>
-        <v/>
-      </c>
-      <c r="AG41" t="str">
-        <f>IF(ISBLANK(center_0!AG41),"",center_0!AG41)</f>
-        <v/>
-      </c>
-      <c r="AH41" t="str">
-        <f>IF(ISBLANK(center_0!AH41),"",center_0!AH41)</f>
-        <v/>
-      </c>
-      <c r="AI41" t="str">
-        <f>IF(ISBLANK(center_0!AI41),"",center_0!AI41)</f>
-        <v/>
-      </c>
-      <c r="AJ41" t="str">
-        <f>IF(ISBLANK(center_0!AJ41),"",center_0!AJ41)</f>
-        <v/>
-      </c>
-      <c r="AK41" t="str">
-        <f>IF(ISBLANK(center_0!AK41),"",center_0!AK41)</f>
-        <v/>
-      </c>
-      <c r="AL41" t="str">
-        <f>IF(ISBLANK(center_0!AL41),"",center_0!AL41)</f>
-        <v/>
-      </c>
-      <c r="AM41" t="str">
-        <f>IF(ISBLANK(center_0!AM41),"",center_0!AM41)</f>
-        <v/>
-      </c>
-      <c r="AN41" t="str">
-        <f>IF(ISBLANK(center_0!AN41),"",center_0!AN41)</f>
-        <v/>
-      </c>
-      <c r="AO41" t="str">
-        <f>IF(ISBLANK(center_0!AO41),"",center_0!AO41)</f>
-        <v/>
-      </c>
-      <c r="AP41" t="str">
-        <f>IF(ISBLANK(center_0!AP41),"",center_0!AP41)</f>
-        <v/>
-      </c>
-      <c r="AQ41" t="str">
-        <f>IF(ISBLANK(center_0!AQ41),"",center_0!AQ41)</f>
-        <v/>
-      </c>
-      <c r="AR41" t="str">
-        <f>IF(ISBLANK(center_0!AR41),"",center_0!AR41)</f>
-        <v/>
-      </c>
-      <c r="AS41" t="str">
-        <f>IF(ISBLANK(center_0!AS41),"",center_0!AS41)</f>
-        <v/>
-      </c>
-      <c r="AT41" t="str">
-        <f>IF(ISBLANK(center_0!AT41),"",center_0!AT41)</f>
-        <v/>
-      </c>
-      <c r="AU41" t="str">
-        <f>IF(ISBLANK(center_0!AU41),"",center_0!AU41)</f>
         <v/>
       </c>
     </row>
@@ -5543,629 +6205,729 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B2B75D-4D58-48A6-8AE4-061359CFFBFC}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),0,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),0,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),0,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),0,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),0,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),0,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -6176,629 +6938,897 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D46676C-6D47-439D-8E91-C7448FAFDD09}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
+      <c r="B4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!B4),center_0!B4+50,"")</f>
+        <v/>
+      </c>
+      <c r="C4" s="1">
+        <f>IF(ISNUMBER(center_0!C4),center_0!C4+50,"")</f>
+        <v>440</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!D4),center_0!D4+50,"")</f>
+        <v/>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(ISNUMBER(center_0!E4),center_0!E4+50,"")</f>
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(ISNUMBER(center_0!F4),center_0!F4+50,"")</f>
+        <v>580</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G4),center_0!G4+50,"")</f>
+        <v/>
+      </c>
+      <c r="H4" s="1">
+        <f>IF(ISNUMBER(center_0!H4),center_0!H4+50,"")</f>
+        <v>710</v>
+      </c>
+      <c r="I4" s="1">
+        <f>IF(ISNUMBER(center_0!I4),center_0!I4+50,"")</f>
+        <v>770</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J4),center_0!J4+50,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!K4),center_0!K4+50,"")</f>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!L4),center_0!L4+50,"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="1">
+        <f>IF(ISNUMBER(center_0!M4),center_0!M4+50,"")</f>
+        <v>640</v>
+      </c>
+      <c r="N4" s="1">
+        <f>IF(ISNUMBER(center_0!N4),center_0!N4+50,"")</f>
+        <v>670</v>
+      </c>
+      <c r="O4" s="1">
+        <f>IF(ISNUMBER(center_0!O4),center_0!O4+50,"")</f>
+        <v>800</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!P4),center_0!P4+50,"")</f>
+        <v/>
+      </c>
+      <c r="Q4" s="1">
+        <f>IF(ISNUMBER(center_0!Q4),center_0!Q4+50,"")</f>
+        <v>930</v>
+      </c>
+      <c r="R4" s="1">
+        <f>IF(ISNUMBER(center_0!R4),center_0!R4+50,"")</f>
+        <v>894</v>
+      </c>
+      <c r="S4" s="1">
+        <f>IF(ISNUMBER(center_0!S4),center_0!S4+50,"")</f>
+        <v>1023</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!T4),center_0!T4+50,"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U4),center_0!U4+50,"")</f>
+        <v/>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V4),center_0!V4+50,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
+      <c r="B13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!B13),center_0!B13+50,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="1">
+        <f>IF(ISNUMBER(center_0!C13),center_0!C13+50,"")</f>
+        <v>325</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!D13),center_0!D13+50,"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(ISNUMBER(center_0!E13),center_0!E13+50,"")</f>
+        <v>475</v>
+      </c>
+      <c r="F13" s="1">
+        <f>IF(ISNUMBER(center_0!F13),center_0!F13+50,"")</f>
+        <v>570</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G13),center_0!G13+50,"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="1">
+        <f>IF(ISNUMBER(center_0!H13),center_0!H13+50,"")</f>
+        <v>670</v>
+      </c>
+      <c r="I13" s="1">
+        <f>IF(ISNUMBER(center_0!I13),center_0!I13+50,"")</f>
+        <v>790</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J13),center_0!J13+50,"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="1">
+        <f>IF(ISNUMBER(center_0!K13),center_0!K13+50,"")</f>
+        <v>300</v>
+      </c>
+      <c r="L13" s="1">
+        <f>IF(ISNUMBER(center_0!L13),center_0!L13+50,"")</f>
+        <v>475</v>
+      </c>
+      <c r="M13" s="1">
+        <f>IF(ISNUMBER(center_0!M13),center_0!M13+50,"")</f>
+        <v>600</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N13),center_0!N13+50,"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="1">
+        <f>IF(ISNUMBER(center_0!O13),center_0!O13+50,"")</f>
+        <v>700</v>
+      </c>
+      <c r="P13" s="1">
+        <f>IF(ISNUMBER(center_0!P13),center_0!P13+50,"")</f>
+        <v>830</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!Q13),center_0!Q13+50,"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R13),center_0!R13+50,"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="1">
+        <f>IF(ISNUMBER(center_0!S13),center_0!S13+50,"")</f>
+        <v>980</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!T13),center_0!T13+50,"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U13),center_0!U13+50,"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V13),center_0!V13+50,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),center_0!B15+30,"")</f>
+        <v>125</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),center_0!C15+30,"")</f>
+        <v>275</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),center_0!D15+30,"")</f>
+        <v>410</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),center_0!E15+30,"")</f>
+        <v>530</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),center_0!F15+30,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),center_0!G15+30,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),center_0!H15+30,"")</f>
+        <v>665</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),center_0!I15+30,"")</f>
+        <v>815</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),center_0!J15+30,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),center_0!K15+30,"")</f>
+        <v>285</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),center_0!L15+30,"")</f>
+        <v>440</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),center_0!M15+30,"")</f>
+        <v>560</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),center_0!N15+30,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),center_0!O15+30,"")</f>
+        <v>700</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),center_0!P15+30,"")</f>
+        <v>820</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),center_0!Q15+30,"")</f>
+        <v>900</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),center_0!R15+30,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),center_0!S15+30,"")</f>
+        <v>990</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),center_0!T15+30,"")</f>
+        <v>120</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),center_0!U15+30,"")</f>
+        <v>240</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),center_0!V15+30,"")</f>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>
@@ -6809,629 +7839,729 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A734E0C-7A4B-428A-95DC-306859B6AB0F}">
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="4" t="str">
         <f>IF(ISBLANK(center_0!F1),"",center_0!F1)</f>
         <v>peroxides</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
         <v>unassigned</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
         <v>lactones 1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
         <v>lactones 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
         <v>carbonyl 1</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
         <v>carboxylic 1</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
         <v>carboxylic 2</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
         <v>anhydrides</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="4" t="str">
         <f>IF(ISBLANK(center_0!N1),"",center_0!N1)</f>
         <v>hydroxyl</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="4" t="str">
         <f>IF(ISBLANK(center_0!O1),"",center_0!O1)</f>
         <v>phenols</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
         <v>carbonyls 1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
         <v>carbonyls 2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
         <v>ether</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="4" t="str">
         <f>IF(ISBLANK(center_0!S1),"",center_0!S1)</f>
         <v>pyrones</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
         <v>adsorbed</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
         <v>unassigned 1</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
         <v>unassigned 2</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="4" t="str">
         <f>IF(ISBLANK(center_0!X1),"",center_0!X1)</f>
         <v/>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y1),"",center_0!Y1)</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z1),"",center_0!Z1)</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA1),"",center_0!AA1)</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB1),"",center_0!AB1)</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC1),"",center_0!AC1)</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD1),"",center_0!AD1)</f>
         <v/>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE1),"",center_0!AE1)</f>
         <v/>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF1),"",center_0!AF1)</f>
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG1),"",center_0!AG1)</f>
         <v/>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH1),"",center_0!AH1)</f>
         <v/>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI1),"",center_0!AI1)</f>
         <v/>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ1),"",center_0!AJ1)</f>
         <v/>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK1),"",center_0!AK1)</f>
         <v/>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL1),"",center_0!AL1)</f>
         <v/>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM1),"",center_0!AM1)</f>
         <v/>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN1),"",center_0!AN1)</f>
         <v/>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO1),"",center_0!AO1)</f>
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP1),"",center_0!AP1)</f>
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ1),"",center_0!AQ1)</f>
         <v/>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR1),"",center_0!AR1)</f>
         <v/>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS1),"",center_0!AS1)</f>
         <v/>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT1),"",center_0!AT1)</f>
         <v/>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU1),"",center_0!AU1)</f>
         <v/>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="4" t="str">
         <f>IF(ISBLANK(center_0!AV1),"",center_0!AV1)</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(ISBLANK(center_0!B2),"",center_0!B2)</f>
         <v>CO2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(ISBLANK(center_0!C2),"",center_0!C2)</f>
         <v>CO2</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(ISBLANK(center_0!D2),"",center_0!D2)</f>
         <v>CO2</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(ISBLANK(center_0!E2),"",center_0!E2)</f>
         <v>CO2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>IF(ISBLANK(center_0!F2),"",center_0!F2)</f>
         <v>CO2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(ISBLANK(center_0!G2),"",center_0!G2)</f>
         <v>CO2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="4" t="str">
         <f>IF(ISBLANK(center_0!H2),"",center_0!H2)</f>
         <v>CO2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(ISBLANK(center_0!I2),"",center_0!I2)</f>
         <v>CO2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(ISBLANK(center_0!J2),"",center_0!J2)</f>
         <v>CO2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(ISBLANK(center_0!K2),"",center_0!K2)</f>
         <v>CO</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="4" t="str">
         <f>IF(ISBLANK(center_0!L2),"",center_0!L2)</f>
         <v>CO</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="4" t="str">
         <f>IF(ISBLANK(center_0!M2),"",center_0!M2)</f>
         <v>CO</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="4" t="str">
         <f>IF(ISBLANK(center_0!N2),"",center_0!N2)</f>
         <v>CO</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="4" t="str">
         <f>IF(ISBLANK(center_0!O2),"",center_0!O2)</f>
         <v>CO</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="4" t="str">
         <f>IF(ISBLANK(center_0!P2),"",center_0!P2)</f>
         <v>CO</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q2),"",center_0!Q2)</f>
         <v>CO</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="4" t="str">
         <f>IF(ISBLANK(center_0!R2),"",center_0!R2)</f>
         <v>CO</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="str">
         <f>IF(ISBLANK(center_0!S2),"",center_0!S2)</f>
         <v>CO</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="4" t="str">
         <f>IF(ISBLANK(center_0!T2),"",center_0!T2)</f>
         <v>H2O</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="4" t="str">
         <f>IF(ISBLANK(center_0!U2),"",center_0!U2)</f>
         <v>H2O</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="4" t="str">
         <f>IF(ISBLANK(center_0!V2),"",center_0!V2)</f>
         <v>H2O</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(ISBLANK(center_0!W2),"",center_0!W2)</f>
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="4" t="str">
         <f>IF(ISBLANK(center_0!X2),"",center_0!X2)</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Y2),"",center_0!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="4" t="str">
         <f>IF(ISBLANK(center_0!Z2),"",center_0!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AA2),"",center_0!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AB2),"",center_0!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AC2),"",center_0!AC2)</f>
         <v/>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AD2),"",center_0!AD2)</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AE2),"",center_0!AE2)</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AF2),"",center_0!AF2)</f>
         <v/>
       </c>
-      <c r="AG2" t="str">
+      <c r="AG2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AG2),"",center_0!AG2)</f>
         <v/>
       </c>
-      <c r="AH2" t="str">
+      <c r="AH2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AH2),"",center_0!AH2)</f>
         <v/>
       </c>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AI2),"",center_0!AI2)</f>
         <v/>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AJ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AJ2),"",center_0!AJ2)</f>
         <v/>
       </c>
-      <c r="AK2" t="str">
+      <c r="AK2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AK2),"",center_0!AK2)</f>
         <v/>
       </c>
-      <c r="AL2" t="str">
+      <c r="AL2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AL2),"",center_0!AL2)</f>
         <v/>
       </c>
-      <c r="AM2" t="str">
+      <c r="AM2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AM2),"",center_0!AM2)</f>
         <v/>
       </c>
-      <c r="AN2" t="str">
+      <c r="AN2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AN2),"",center_0!AN2)</f>
         <v/>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AO2),"",center_0!AO2)</f>
         <v/>
       </c>
-      <c r="AP2" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AP2),"",center_0!AP2)</f>
         <v/>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AQ2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AQ2),"",center_0!AQ2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
+      <c r="AR2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AR2),"",center_0!AR2)</f>
         <v/>
       </c>
-      <c r="AS2" t="str">
+      <c r="AS2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AS2),"",center_0!AS2)</f>
         <v/>
       </c>
-      <c r="AT2" t="str">
+      <c r="AT2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AT2),"",center_0!AT2)</f>
         <v/>
       </c>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(ISBLANK(center_0!AU2),"",center_0!AU2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+      <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+      <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+      <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>saal2020a</v>
+        <v>dittmann2021</v>
+      </c>
+      <c r="B15" s="1">
+        <f>IF(ISNUMBER(center_0!B15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IF(ISNUMBER(center_0!C15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="D15" s="1">
+        <f>IF(ISNUMBER(center_0!D15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(ISNUMBER(center_0!E15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F15),95,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G15),95,"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(ISNUMBER(center_0!H15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(center_0!I15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J15),95,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(ISNUMBER(center_0!K15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="L15" s="1">
+        <f>IF(ISNUMBER(center_0!L15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(ISNUMBER(center_0!M15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N15),95,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1">
+        <f>IF(ISNUMBER(center_0!O15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="P15" s="1">
+        <f>IF(ISNUMBER(center_0!P15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>IF(ISNUMBER(center_0!Q15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R15),95,"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f>IF(ISNUMBER(center_0!S15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(ISNUMBER(center_0!T15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="U15" s="1">
+        <f>IF(ISNUMBER(center_0!U15),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="V15" s="1">
+        <f>IF(ISNUMBER(center_0!V15),95,"")</f>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+      <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>saal2020b</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>IF(ISBLANK(center_0!A40),"",center_0!A40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>IF(ISBLANK(center_0!A41),"",center_0!A41)</f>
         <v/>
       </c>
     </row>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Downloads\8PAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C4E9D-0696-42A3-9391-8EE7A6AE0658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC6B5-625B-431F-8546-2EBB9770305C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -122,18 +122,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>adsorbed</t>
-  </si>
-  <si>
-    <t>unassigned</t>
-  </si>
-  <si>
-    <t>unassigned 1</t>
-  </si>
-  <si>
-    <t>unassigned 2</t>
-  </si>
-  <si>
     <t>almarri2009b</t>
   </si>
   <si>
@@ -153,6 +141,21 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>adsorbed-CO2</t>
+  </si>
+  <si>
+    <t>unassigned-CO2</t>
+  </si>
+  <si>
+    <t>adsorbed-H2O</t>
+  </si>
+  <si>
+    <t>unassigned-H2O 1</t>
+  </si>
+  <si>
+    <t>unassigned-H2O 2</t>
   </si>
 </sst>
 </file>
@@ -556,16 +559,16 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -587,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
@@ -602,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -641,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -655,67 +658,67 @@
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1054,7 +1057,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1101,7 +1104,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>95</v>
@@ -1198,7 +1201,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -1218,7 +1221,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -1270,15 +1273,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -1898,29 +1901,28 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -1931,7 +1933,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -1951,7 +1953,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -2003,15 +2005,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -2332,7 +2334,7 @@
         <v>figueiredo2007</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
@@ -2400,7 +2402,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2593,7 +2595,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -2613,7 +2615,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -2665,15 +2667,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -3326,7 +3328,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -3346,7 +3348,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -3398,15 +3400,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -4055,7 +4057,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -4075,7 +4077,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -4127,15 +4129,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -4956,7 +4958,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -4976,7 +4978,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -5028,15 +5030,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -6241,7 +6243,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -6261,7 +6263,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -6313,15 +6315,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -6974,7 +6976,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -6994,7 +6996,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -7046,15 +7048,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -7875,7 +7877,7 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
@@ -7895,7 +7897,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned</v>
+        <v>unassigned-CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
@@ -7947,15 +7949,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed</v>
+        <v>adsorbed-H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned 1</v>
+        <v>unassigned-H2O 1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned 2</v>
+        <v>unassigned-H2O 2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Downloads\8PAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Downloads\8PAC_washed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC6B5-625B-431F-8546-2EBB9770305C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F1964-A890-4CF9-AE1E-EE42DA23641A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -137,9 +137,6 @@
     <t>wh</t>
   </si>
   <si>
-    <t>dittmann2021</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>unassigned-H2O 2</t>
+  </si>
+  <si>
+    <t>dittmann2021a</t>
+  </si>
+  <si>
+    <t>dittmann2021b</t>
+  </si>
+  <si>
+    <t>dittmann2021c</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -242,6 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
@@ -605,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -644,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1104,7 +1111,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>95</v>
@@ -1153,6 +1160,103 @@
       </c>
       <c r="V15" s="1">
         <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1">
+        <v>245</v>
+      </c>
+      <c r="D16" s="1">
+        <v>380</v>
+      </c>
+      <c r="E16" s="1">
+        <v>500</v>
+      </c>
+      <c r="H16" s="3">
+        <v>635</v>
+      </c>
+      <c r="I16" s="3">
+        <v>785</v>
+      </c>
+      <c r="K16" s="3">
+        <v>255</v>
+      </c>
+      <c r="L16" s="3">
+        <v>410</v>
+      </c>
+      <c r="M16" s="1">
+        <v>530</v>
+      </c>
+      <c r="O16" s="3">
+        <v>670</v>
+      </c>
+      <c r="P16" s="3">
+        <v>790</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>870</v>
+      </c>
+      <c r="S16" s="1">
+        <v>960</v>
+      </c>
+      <c r="T16" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1">
+        <v>380</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="G17" s="7">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>635</v>
+      </c>
+      <c r="I17" s="3">
+        <v>785</v>
+      </c>
+      <c r="K17" s="3">
+        <v>255</v>
+      </c>
+      <c r="L17" s="3">
+        <v>410</v>
+      </c>
+      <c r="M17" s="1">
+        <v>530</v>
+      </c>
+      <c r="O17" s="3">
+        <v>670</v>
+      </c>
+      <c r="P17" s="3">
+        <v>790</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>870</v>
+      </c>
+      <c r="S17" s="1">
+        <v>960</v>
+      </c>
+      <c r="T17" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1764,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),1,"")</f>
@@ -1750,13 +1854,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -2334,7 +2438,7 @@
         <v>figueiredo2007</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
@@ -2395,7 +2499,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2411,13 +2515,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3054,7 +3158,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),47.5,"")</f>
@@ -3144,13 +3248,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3783,7 +3887,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),0.5,"")</f>
@@ -3873,13 +3977,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -4684,7 +4788,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),center_0!B15-30,"")</f>
@@ -4774,13 +4878,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -5417,7 +5521,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),0,"")</f>
@@ -5507,13 +5611,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -6702,7 +6806,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),0,"")</f>
@@ -6792,13 +6896,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -7603,7 +7707,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),center_0!B15+30,"")</f>
@@ -7693,13 +7797,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -8336,7 +8440,7 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),95,"")</f>
@@ -8426,13 +8530,13 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v/>
+        <v>dittmann2021b</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>dittmann2021c</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Downloads\8PAC_washed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\weitere AC\Pia_PROTECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F1964-A890-4CF9-AE1E-EE42DA23641A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC4773-57DB-4D5E-9606-61AF0FBD6905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-23148" yWindow="2400" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -566,33 +566,33 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -728,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -760,7 +760,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -844,7 +844,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -870,7 +870,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>500</v>
       </c>
       <c r="G17" s="7">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="H17" s="3">
         <v>635</v>
@@ -1272,33 +1272,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B15" sqref="B15:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -1492,7 +1492,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -1682,73 +1682,73 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -1761,7 +1761,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -1851,145 +1851,313 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),1,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),1,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),1,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),1,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),1,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),1,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),1,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(ISNUMBER(center_0!G17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),1,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),1,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),1,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),1,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -2005,32 +2173,32 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -2224,7 +2392,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -2414,25 +2582,25 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
@@ -2441,49 +2609,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -2496,7 +2664,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -2512,145 +2680,151 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -2666,33 +2840,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -2886,7 +3060,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -3076,73 +3250,73 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -3155,7 +3329,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -3245,145 +3419,312 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),47.5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),47.5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -3399,33 +3740,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="V15" sqref="B15:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -3619,7 +3960,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -3805,73 +4146,73 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -3884,7 +4225,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -3974,145 +4315,313 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),0.5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(ISNUMBER(center_0!G17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),0.5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -4128,33 +4637,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -4348,7 +4857,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -4538,13 +5047,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
@@ -4634,55 +5143,55 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
@@ -4772,7 +5281,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -4785,7 +5294,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -4875,145 +5384,313 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),center_0!B16-30,"")</f>
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),center_0!C16-30,"")</f>
+        <v>215</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),center_0!D16-30,"")</f>
+        <v>350</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),center_0!E16-30,"")</f>
+        <v>470</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),center_0!F16-30,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),center_0!G16-30,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),center_0!H16-30,"")</f>
+        <v>605</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),center_0!I16-30,"")</f>
+        <v>755</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),center_0!J16-30,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),center_0!K16-30,"")</f>
+        <v>225</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),center_0!L16-30,"")</f>
+        <v>380</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),center_0!M16-30,"")</f>
+        <v>500</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),center_0!N16-30,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),center_0!O16-30,"")</f>
+        <v>640</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),center_0!P16-30,"")</f>
+        <v>760</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),center_0!Q16-30,"")</f>
+        <v>840</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),center_0!R16-30,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),center_0!S16-30,"")</f>
+        <v>930</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),center_0!T16-30,"")</f>
+        <v>60</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),center_0!U16-30,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),center_0!V16-30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),center_0!B17-30,"")</f>
+        <v>65</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),center_0!C17-30,"")</f>
+        <v>215</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),center_0!D17-30,"")</f>
+        <v>350</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),center_0!E17-30,"")</f>
+        <v>470</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),center_0!F17-30,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(ISNUMBER(center_0!G17),center_0!G17-30,"")</f>
+        <v>590</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),center_0!H17-30,"")</f>
+        <v>605</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),center_0!I17-30,"")</f>
+        <v>755</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),center_0!J17-30,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),center_0!K17-30,"")</f>
+        <v>225</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),center_0!L17-30,"")</f>
+        <v>380</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),center_0!M17-30,"")</f>
+        <v>500</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),center_0!N17-30,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),center_0!O17-30,"")</f>
+        <v>640</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),center_0!P17-30,"")</f>
+        <v>760</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),center_0!Q17-30,"")</f>
+        <v>840</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),center_0!R17-30,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),center_0!S17-30,"")</f>
+        <v>930</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),center_0!T17-30,"")</f>
+        <v>60</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),center_0!U17-30,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),center_0!V17-30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -5029,33 +5706,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B15" sqref="B15:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -5249,7 +5926,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -5439,73 +6116,73 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -5518,7 +6195,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -5608,133 +6285,301 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),0,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),0,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),0,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),0,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),0,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),0,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),0,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(ISNUMBER(center_0!G17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),0,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),0,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),0,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),0,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
@@ -5924,7 +6769,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
@@ -6114,7 +6959,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -6314,33 +7159,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B15" sqref="B15:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -6534,7 +7379,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -6724,73 +7569,73 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -6803,7 +7648,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -6893,145 +7738,313 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),0,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),0,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),0,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),0,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),0,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),0,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),0,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(ISNUMBER(center_0!G17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),0,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),0,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),0,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),0,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -7047,33 +8060,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B15" sqref="B15:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -7267,7 +8280,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -7457,13 +8470,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
@@ -7553,55 +8566,55 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
@@ -7691,7 +8704,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -7704,7 +8717,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -7794,145 +8807,313 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),center_0!B16+30,"")</f>
+        <v>125</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),center_0!C16+30,"")</f>
+        <v>275</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),center_0!D16+30,"")</f>
+        <v>410</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),center_0!E16+30,"")</f>
+        <v>530</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),center_0!F16+30,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),center_0!G16+30,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),center_0!H16+30,"")</f>
+        <v>665</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),center_0!I16+30,"")</f>
+        <v>815</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),center_0!J16+30,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),center_0!K16+30,"")</f>
+        <v>285</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),center_0!L16+30,"")</f>
+        <v>440</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),center_0!M16+30,"")</f>
+        <v>560</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),center_0!N16+30,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),center_0!O16+30,"")</f>
+        <v>700</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),center_0!P16+30,"")</f>
+        <v>820</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),center_0!Q16+30,"")</f>
+        <v>900</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),center_0!R16+30,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),center_0!S16+30,"")</f>
+        <v>990</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),center_0!T16+30,"")</f>
+        <v>120</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),center_0!U16+30,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),center_0!V16+30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),center_0!B17+30,"")</f>
+        <v>125</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),center_0!C17+30,"")</f>
+        <v>275</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),center_0!D17+30,"")</f>
+        <v>410</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),center_0!E17+30,"")</f>
+        <v>530</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),center_0!F17+30,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(ISNUMBER(center_0!G17),center_0!G17+30,"")</f>
+        <v>650</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),center_0!H17+30,"")</f>
+        <v>665</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),center_0!I17+30,"")</f>
+        <v>815</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),center_0!J17+30,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),center_0!K17+30,"")</f>
+        <v>285</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),center_0!L17+30,"")</f>
+        <v>440</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),center_0!M17+30,"")</f>
+        <v>560</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),center_0!N17+30,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),center_0!O17+30,"")</f>
+        <v>700</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),center_0!P17+30,"")</f>
+        <v>820</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),center_0!Q17+30,"")</f>
+        <v>900</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),center_0!R17+30,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),center_0!S17+30,"")</f>
+        <v>990</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),center_0!T17+30,"")</f>
+        <v>120</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),center_0!U17+30,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),center_0!V17+30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
@@ -7948,33 +9129,33 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>IF(ISBLANK(center_0!A1),"",center_0!A1)</f>
         <v>group</v>
@@ -8168,7 +9349,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>IF(ISBLANK(center_0!A2),"",center_0!A2)</f>
         <v>gas</v>
@@ -8358,73 +9539,73 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(center_0!A3),"",center_0!A3)</f>
         <v>almarri2009</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
         <v>ducuosso2015</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>IF(ISBLANK(center_0!A5),"",center_0!A5)</f>
         <v>figueiredo1999</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>IF(ISBLANK(center_0!A6),"",center_0!A6)</f>
         <v>figueiredo2007</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
         <v>gorghulo2008</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
         <v>li2011</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
         <v>morales2014</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
         <v>na2011</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>IF(ISBLANK(center_0!A11),"",center_0!A11)</f>
         <v>samant2004</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(ISBLANK(center_0!A12),"",center_0!A12)</f>
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
         <v>almarri2009b</v>
@@ -8437,7 +9618,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
         <v>dittmann2021a</v>
@@ -8527,145 +9708,312 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
         <v>dittmann2021b</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>IF(ISNUMBER(center_0!B16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IF(ISNUMBER(center_0!C16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(ISNUMBER(center_0!D16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(ISNUMBER(center_0!E16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F16),95,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G16),95,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(ISNUMBER(center_0!H16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISNUMBER(center_0!I16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J16),95,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IF(ISNUMBER(center_0!K16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IF(ISNUMBER(center_0!L16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(ISNUMBER(center_0!M16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N16),95,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(ISNUMBER(center_0!O16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IF(ISNUMBER(center_0!P16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>IF(ISNUMBER(center_0!Q16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R16),95,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f>IF(ISNUMBER(center_0!S16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="T16" s="1">
+        <f>IF(ISNUMBER(center_0!T16),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U16),95,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V16),95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
         <v>dittmann2021c</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f>IF(ISNUMBER(center_0!B17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IF(ISNUMBER(center_0!C17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IF(ISNUMBER(center_0!D17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(ISNUMBER(center_0!E17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F17),95,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(ISNUMBER(center_0!H17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(center_0!I17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J17),95,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IF(ISNUMBER(center_0!K17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IF(ISNUMBER(center_0!L17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(ISNUMBER(center_0!M17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N17),95,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="1">
+        <f>IF(ISNUMBER(center_0!O17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(ISNUMBER(center_0!P17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>IF(ISNUMBER(center_0!Q17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R17),95,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f>IF(ISNUMBER(center_0!S17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="T17" s="1">
+        <f>IF(ISNUMBER(center_0!T17),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!U17),95,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!V17),95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>IF(ISBLANK(center_0!A33),"",center_0!A33)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f>IF(ISBLANK(center_0!A34),"",center_0!A34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f>IF(ISBLANK(center_0!A35),"",center_0!A35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>IF(ISBLANK(center_0!A37),"",center_0!A37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\weitere AC\Pia_PROTECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\weitere AC\Langenau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC4773-57DB-4D5E-9606-61AF0FBD6905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E615B73C-39E7-44AC-84EC-914591BCA982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2400" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -122,9 +122,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>almarri2009b</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -199,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -236,11 +233,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,6 +266,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -563,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
@@ -612,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -651,13 +670,13 @@
         <v>5</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,67 +684,67 @@
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1024,47 +1043,47 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>275</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>425</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <v>520</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <v>620</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="9">
         <v>740</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="9">
         <v>250</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <v>425</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="9">
         <v>550</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="9">
         <v>650</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="9">
         <v>780</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="9">
         <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1076,10 +1095,7 @@
         <v>380</v>
       </c>
       <c r="E14" s="1">
-        <v>530</v>
-      </c>
-      <c r="G14" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H14" s="3">
         <v>635</v>
@@ -1107,6 +1123,15 @@
       </c>
       <c r="S14" s="1">
         <v>960</v>
+      </c>
+      <c r="T14" s="1">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1">
+        <v>210</v>
+      </c>
+      <c r="V14" s="1">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1155,12 +1180,6 @@
       <c r="T15" s="1">
         <v>90</v>
       </c>
-      <c r="U15" s="1">
-        <v>210</v>
-      </c>
-      <c r="V15" s="1">
-        <v>255</v>
-      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1178,6 +1197,9 @@
       <c r="E16" s="1">
         <v>500</v>
       </c>
+      <c r="G16" s="7">
+        <v>625</v>
+      </c>
       <c r="H16" s="3">
         <v>635</v>
       </c>
@@ -1206,56 +1228,6 @@
         <v>960</v>
       </c>
       <c r="T16" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1">
-        <v>95</v>
-      </c>
-      <c r="C17" s="1">
-        <v>245</v>
-      </c>
-      <c r="D17" s="1">
-        <v>380</v>
-      </c>
-      <c r="E17" s="1">
-        <v>500</v>
-      </c>
-      <c r="G17" s="7">
-        <v>620</v>
-      </c>
-      <c r="H17" s="3">
-        <v>635</v>
-      </c>
-      <c r="I17" s="3">
-        <v>785</v>
-      </c>
-      <c r="K17" s="3">
-        <v>255</v>
-      </c>
-      <c r="L17" s="3">
-        <v>410</v>
-      </c>
-      <c r="M17" s="1">
-        <v>530</v>
-      </c>
-      <c r="O17" s="3">
-        <v>670</v>
-      </c>
-      <c r="P17" s="3">
-        <v>790</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>870</v>
-      </c>
-      <c r="S17" s="1">
-        <v>960</v>
-      </c>
-      <c r="T17" s="1">
         <v>90</v>
       </c>
     </row>
@@ -1269,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C02276-5893-45C5-8032-5F138C27CB79}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,8 +1714,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -1751,20 +1723,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),1,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),1,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),1,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),1,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),1,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),1,"")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),1,"")</f>
@@ -1842,19 +1891,19 @@
         <f>IF(ISNUMBER(center_0!T15),1,"")</f>
         <v>1</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),1,"")</f>
@@ -1876,9 +1925,9 @@
         <f>IF(ISNUMBER(center_0!F16),1,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="1">
         <f>IF(ISNUMBER(center_0!G16),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISNUMBER(center_0!H16),1,"")</f>
@@ -1941,181 +1990,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),1,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <f>IF(ISNUMBER(center_0!G17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),1,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),1,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),1,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),1,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -2154,12 +2119,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -2170,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AB40E-2FFC-42C2-AD78-D9FFEE5C8809}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2565,7 @@
         <v>figueiredo2007</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -2645,8 +2604,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -2654,12 +2613,15 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
+        <v>dittmann2021a</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
+      <c r="M14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2667,122 +2629,112 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+        <v>dittmann2021b</v>
+      </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -2821,12 +2773,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -2837,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B49426-40FA-4A8E-9024-66BDA98D0A8E}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,8 +3256,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -3319,20 +3265,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),47.5,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),47.5,"")</f>
+        <v>47.5</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),47.5,"")</f>
@@ -3410,19 +3433,19 @@
         <f>IF(ISNUMBER(center_0!T15),47.5,"")</f>
         <v>47.5</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),47.5,"")</f>
-        <v>47.5</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),47.5,"")</f>
@@ -3444,13 +3467,12 @@
         <f>IF(ISNUMBER(center_0!F16),47.5,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!G16),47.5,"")</f>
-        <v/>
+      <c r="G16" s="1">
+        <v>15</v>
       </c>
       <c r="H16" s="1">
-        <f>IF(ISNUMBER(center_0!H16),47.5,"")</f>
-        <v>47.5</v>
+        <f>IF(ISNUMBER(center_0!H16),32.5,"")</f>
+        <v>32.5</v>
       </c>
       <c r="I16" s="1">
         <f>IF(ISNUMBER(center_0!I16),47.5,"")</f>
@@ -3509,180 +3531,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),47.5,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),47.5,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),47.5,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),47.5,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),47.5,"")</f>
-        <v>47.5</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),47.5,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),47.5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -3721,12 +3660,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -3737,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C6DE0-A18F-46F1-A139-D60050F2DE41}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="B15:V17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4206,8 +4139,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -4215,20 +4148,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),0.5,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),0.5,"")</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),0.5,"")</f>
@@ -4306,19 +4316,19 @@
         <f>IF(ISNUMBER(center_0!T15),0.5,"")</f>
         <v>0.5</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),0.5,"")</f>
-        <v>0.5</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),0.5,"")</f>
@@ -4340,9 +4350,9 @@
         <f>IF(ISNUMBER(center_0!F16),0.5,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="1">
         <f>IF(ISNUMBER(center_0!G16),0.5,"")</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISNUMBER(center_0!H16),0.5,"")</f>
@@ -4405,181 +4415,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),0.5,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <f>IF(ISNUMBER(center_0!G17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),0.5,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),0.5,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),0.5,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),0.5,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),0.5,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),0.5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -4618,12 +4544,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -4634,10 +4554,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0093193B-42D2-4CB5-99F9-AFD01B54638D}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,92 +5111,92 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!B13),center_0!B13-50,"")</f>
         <v/>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <f>IF(ISNUMBER(center_0!C13),center_0!C13-50,"")</f>
         <v>225</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!D13),center_0!D13-50,"")</f>
         <v/>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <f>IF(ISNUMBER(center_0!E13),center_0!E13-50,"")</f>
         <v>375</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <f>IF(ISNUMBER(center_0!F13),center_0!F13-50,"")</f>
         <v>470</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!G13),center_0!G13-50,"")</f>
         <v/>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <f>IF(ISNUMBER(center_0!H13),center_0!H13-50,"")</f>
         <v>570</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="9">
         <f>IF(ISNUMBER(center_0!I13),center_0!I13-50,"")</f>
         <v>690</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!J13),center_0!J13-50,"")</f>
         <v/>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="9">
         <f>IF(ISNUMBER(center_0!K13),center_0!K13-50,"")</f>
         <v>200</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <f>IF(ISNUMBER(center_0!L13),center_0!L13-50,"")</f>
         <v>375</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="9">
         <f>IF(ISNUMBER(center_0!M13),center_0!M13-50,"")</f>
         <v>500</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="N13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!N13),center_0!N13-50,"")</f>
         <v/>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="9">
         <f>IF(ISNUMBER(center_0!O13),center_0!O13-50,"")</f>
         <v>600</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="9">
         <f>IF(ISNUMBER(center_0!P13),center_0!P13-50,"")</f>
         <v>730</v>
       </c>
-      <c r="Q13" s="1" t="str">
+      <c r="Q13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!Q13),center_0!Q13-50,"")</f>
         <v/>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="R13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!R13),center_0!R13-50,"")</f>
         <v/>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="9">
         <f>IF(ISNUMBER(center_0!S13),center_0!S13-50,"")</f>
         <v>880</v>
       </c>
-      <c r="T13" s="1" t="str">
+      <c r="T13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!T13),center_0!T13-50,"")</f>
         <v/>
       </c>
-      <c r="U13" s="1" t="str">
+      <c r="U13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!U13),center_0!U13-50,"")</f>
         <v/>
       </c>
-      <c r="V13" s="1" t="str">
+      <c r="V13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!V13),center_0!V13-50,"")</f>
         <v/>
       </c>
@@ -5284,20 +5204,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),center_0!B14-30,"")</f>
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),center_0!C14-30,"")</f>
+        <v>215</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),center_0!D14-30,"")</f>
+        <v>350</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),center_0!E14-30,"")</f>
+        <v>470</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),center_0!F14-30,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),center_0!G14-30,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),center_0!H14-30,"")</f>
+        <v>605</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),center_0!I14-30,"")</f>
+        <v>755</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),center_0!J14-30,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),center_0!K14-30,"")</f>
+        <v>225</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),center_0!L14-30,"")</f>
+        <v>380</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),center_0!M14-30,"")</f>
+        <v>500</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),center_0!N14-30,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),center_0!O14-30,"")</f>
+        <v>640</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),center_0!P14-30,"")</f>
+        <v>760</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),center_0!Q14-30,"")</f>
+        <v>840</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),center_0!R14-30,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),center_0!S14-30,"")</f>
+        <v>930</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),center_0!T14-30,"")</f>
+        <v>60</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),center_0!U14-30,"")</f>
+        <v>180</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),center_0!V14-30,"")</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),center_0!B15-30,"")</f>
@@ -5375,19 +5372,19 @@
         <f>IF(ISNUMBER(center_0!T15),center_0!T15-30,"")</f>
         <v>60</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),center_0!U15-30,"")</f>
-        <v>180</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),center_0!V15-30,"")</f>
-        <v>225</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),center_0!B16-30,"")</f>
@@ -5409,9 +5406,9 @@
         <f>IF(ISNUMBER(center_0!F16),center_0!F16-30,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!G16),center_0!G16-30,"")</f>
-        <v/>
+      <c r="G16" s="1">
+        <f>IF(ISNUMBER(center_0!G16),center_0!G16-35,"")</f>
+        <v>590</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISNUMBER(center_0!H16),center_0!H16-30,"")</f>
@@ -5474,181 +5471,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),center_0!B17-30,"")</f>
-        <v>65</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),center_0!C17-30,"")</f>
-        <v>215</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),center_0!D17-30,"")</f>
-        <v>350</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),center_0!E17-30,"")</f>
-        <v>470</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),center_0!F17-30,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <f>IF(ISNUMBER(center_0!G17),center_0!G17-30,"")</f>
-        <v>590</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),center_0!H17-30,"")</f>
-        <v>605</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),center_0!I17-30,"")</f>
-        <v>755</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),center_0!J17-30,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),center_0!K17-30,"")</f>
-        <v>225</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),center_0!L17-30,"")</f>
-        <v>380</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),center_0!M17-30,"")</f>
-        <v>500</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),center_0!N17-30,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),center_0!O17-30,"")</f>
-        <v>640</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),center_0!P17-30,"")</f>
-        <v>760</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),center_0!Q17-30,"")</f>
-        <v>840</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),center_0!R17-30,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),center_0!S17-30,"")</f>
-        <v>930</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),center_0!T17-30,"")</f>
-        <v>60</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),center_0!U17-30,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),center_0!V17-30,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -5687,12 +5600,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -5703,10 +5610,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD939A53-4329-499E-A0E8-36AD8584F372}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6176,8 +6083,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -6185,20 +6092,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),0,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),0,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),0,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),0,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),0,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),0,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),0,"")</f>
@@ -6276,19 +6260,19 @@
         <f>IF(ISNUMBER(center_0!T15),0,"")</f>
         <v>0</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),0,"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),0,"")</f>
@@ -6310,13 +6294,12 @@
         <f>IF(ISNUMBER(center_0!F16),0,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="1">
         <f>IF(ISNUMBER(center_0!G16),0,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>IF(ISNUMBER(center_0!H16),0,"")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1">
         <f>IF(ISNUMBER(center_0!I16),0,"")</f>
@@ -6375,181 +6358,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),0,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <f>IF(ISNUMBER(center_0!G17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),0,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),0,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),0,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),0,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -6578,6 +6477,190 @@
         <f>IF(ISBLANK(center_0!A36),"",center_0!A36)</f>
         <v/>
       </c>
+      <c r="B36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!B36),"",center_0!B36)</f>
+        <v/>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!C36),"",center_0!C36)</f>
+        <v/>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!D36),"",center_0!D36)</f>
+        <v/>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!E36),"",center_0!E36)</f>
+        <v/>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!F36),"",center_0!F36)</f>
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!G36),"",center_0!G36)</f>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!H36),"",center_0!H36)</f>
+        <v/>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!I36),"",center_0!I36)</f>
+        <v/>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!J36),"",center_0!J36)</f>
+        <v/>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!K36),"",center_0!K36)</f>
+        <v/>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!L36),"",center_0!L36)</f>
+        <v/>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!M36),"",center_0!M36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!N36),"",center_0!N36)</f>
+        <v/>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!O36),"",center_0!O36)</f>
+        <v/>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!P36),"",center_0!P36)</f>
+        <v/>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Q36),"",center_0!Q36)</f>
+        <v/>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!R36),"",center_0!R36)</f>
+        <v/>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!S36),"",center_0!S36)</f>
+        <v/>
+      </c>
+      <c r="T36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!T36),"",center_0!T36)</f>
+        <v/>
+      </c>
+      <c r="U36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!U36),"",center_0!U36)</f>
+        <v/>
+      </c>
+      <c r="V36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!V36),"",center_0!V36)</f>
+        <v/>
+      </c>
+      <c r="W36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!W36),"",center_0!W36)</f>
+        <v/>
+      </c>
+      <c r="X36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!X36),"",center_0!X36)</f>
+        <v/>
+      </c>
+      <c r="Y36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Y36),"",center_0!Y36)</f>
+        <v/>
+      </c>
+      <c r="Z36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!Z36),"",center_0!Z36)</f>
+        <v/>
+      </c>
+      <c r="AA36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AA36),"",center_0!AA36)</f>
+        <v/>
+      </c>
+      <c r="AB36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AB36),"",center_0!AB36)</f>
+        <v/>
+      </c>
+      <c r="AC36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AC36),"",center_0!AC36)</f>
+        <v/>
+      </c>
+      <c r="AD36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AD36),"",center_0!AD36)</f>
+        <v/>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AE36),"",center_0!AE36)</f>
+        <v/>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AF36),"",center_0!AF36)</f>
+        <v/>
+      </c>
+      <c r="AG36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AG36),"",center_0!AG36)</f>
+        <v/>
+      </c>
+      <c r="AH36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AH36),"",center_0!AH36)</f>
+        <v/>
+      </c>
+      <c r="AI36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AI36),"",center_0!AI36)</f>
+        <v/>
+      </c>
+      <c r="AJ36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AJ36),"",center_0!AJ36)</f>
+        <v/>
+      </c>
+      <c r="AK36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AK36),"",center_0!AK36)</f>
+        <v/>
+      </c>
+      <c r="AL36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AL36),"",center_0!AL36)</f>
+        <v/>
+      </c>
+      <c r="AM36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AM36),"",center_0!AM36)</f>
+        <v/>
+      </c>
+      <c r="AN36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AN36),"",center_0!AN36)</f>
+        <v/>
+      </c>
+      <c r="AO36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AO36),"",center_0!AO36)</f>
+        <v/>
+      </c>
+      <c r="AP36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AP36),"",center_0!AP36)</f>
+        <v/>
+      </c>
+      <c r="AQ36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AQ36),"",center_0!AQ36)</f>
+        <v/>
+      </c>
+      <c r="AR36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AR36),"",center_0!AR36)</f>
+        <v/>
+      </c>
+      <c r="AS36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AS36),"",center_0!AS36)</f>
+        <v/>
+      </c>
+      <c r="AT36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AT36),"",center_0!AT36)</f>
+        <v/>
+      </c>
+      <c r="AU36" s="1" t="str">
+        <f>IF(ISBLANK(center_0!AU36),"",center_0!AU36)</f>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
@@ -6956,196 +7039,6 @@
       </c>
       <c r="AU38" s="1" t="str">
         <f>IF(ISBLANK(center_0!AU38),"",center_0!AU38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
-        <v/>
-      </c>
-      <c r="B39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!B39),"",center_0!B39)</f>
-        <v/>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!C39),"",center_0!C39)</f>
-        <v/>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!D39),"",center_0!D39)</f>
-        <v/>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!E39),"",center_0!E39)</f>
-        <v/>
-      </c>
-      <c r="F39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!F39),"",center_0!F39)</f>
-        <v/>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!G39),"",center_0!G39)</f>
-        <v/>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!H39),"",center_0!H39)</f>
-        <v/>
-      </c>
-      <c r="I39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!I39),"",center_0!I39)</f>
-        <v/>
-      </c>
-      <c r="J39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!J39),"",center_0!J39)</f>
-        <v/>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!K39),"",center_0!K39)</f>
-        <v/>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!L39),"",center_0!L39)</f>
-        <v/>
-      </c>
-      <c r="M39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!M39),"",center_0!M39)</f>
-        <v/>
-      </c>
-      <c r="N39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!N39),"",center_0!N39)</f>
-        <v/>
-      </c>
-      <c r="O39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!O39),"",center_0!O39)</f>
-        <v/>
-      </c>
-      <c r="P39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!P39),"",center_0!P39)</f>
-        <v/>
-      </c>
-      <c r="Q39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!Q39),"",center_0!Q39)</f>
-        <v/>
-      </c>
-      <c r="R39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!R39),"",center_0!R39)</f>
-        <v/>
-      </c>
-      <c r="S39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!S39),"",center_0!S39)</f>
-        <v/>
-      </c>
-      <c r="T39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!T39),"",center_0!T39)</f>
-        <v/>
-      </c>
-      <c r="U39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!U39),"",center_0!U39)</f>
-        <v/>
-      </c>
-      <c r="V39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!V39),"",center_0!V39)</f>
-        <v/>
-      </c>
-      <c r="W39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!W39),"",center_0!W39)</f>
-        <v/>
-      </c>
-      <c r="X39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!X39),"",center_0!X39)</f>
-        <v/>
-      </c>
-      <c r="Y39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!Y39),"",center_0!Y39)</f>
-        <v/>
-      </c>
-      <c r="Z39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!Z39),"",center_0!Z39)</f>
-        <v/>
-      </c>
-      <c r="AA39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AA39),"",center_0!AA39)</f>
-        <v/>
-      </c>
-      <c r="AB39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AB39),"",center_0!AB39)</f>
-        <v/>
-      </c>
-      <c r="AC39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AC39),"",center_0!AC39)</f>
-        <v/>
-      </c>
-      <c r="AD39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AD39),"",center_0!AD39)</f>
-        <v/>
-      </c>
-      <c r="AE39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AE39),"",center_0!AE39)</f>
-        <v/>
-      </c>
-      <c r="AF39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AF39),"",center_0!AF39)</f>
-        <v/>
-      </c>
-      <c r="AG39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AG39),"",center_0!AG39)</f>
-        <v/>
-      </c>
-      <c r="AH39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AH39),"",center_0!AH39)</f>
-        <v/>
-      </c>
-      <c r="AI39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AI39),"",center_0!AI39)</f>
-        <v/>
-      </c>
-      <c r="AJ39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AJ39),"",center_0!AJ39)</f>
-        <v/>
-      </c>
-      <c r="AK39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AK39),"",center_0!AK39)</f>
-        <v/>
-      </c>
-      <c r="AL39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AL39),"",center_0!AL39)</f>
-        <v/>
-      </c>
-      <c r="AM39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AM39),"",center_0!AM39)</f>
-        <v/>
-      </c>
-      <c r="AN39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AN39),"",center_0!AN39)</f>
-        <v/>
-      </c>
-      <c r="AO39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AO39),"",center_0!AO39)</f>
-        <v/>
-      </c>
-      <c r="AP39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AP39),"",center_0!AP39)</f>
-        <v/>
-      </c>
-      <c r="AQ39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AQ39),"",center_0!AQ39)</f>
-        <v/>
-      </c>
-      <c r="AR39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AR39),"",center_0!AR39)</f>
-        <v/>
-      </c>
-      <c r="AS39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AS39),"",center_0!AS39)</f>
-        <v/>
-      </c>
-      <c r="AT39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AT39),"",center_0!AT39)</f>
-        <v/>
-      </c>
-      <c r="AU39" s="1" t="str">
-        <f>IF(ISBLANK(center_0!AU39),"",center_0!AU39)</f>
         <v/>
       </c>
     </row>
@@ -7156,10 +7049,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B2B75D-4D58-48A6-8AE4-061359CFFBFC}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7629,8 +7522,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -7638,20 +7531,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),0,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),0,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),0,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),0,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),0,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),0,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),0,"")</f>
@@ -7729,19 +7699,19 @@
         <f>IF(ISNUMBER(center_0!T15),0,"")</f>
         <v>0</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),0,"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),0,"")</f>
@@ -7763,9 +7733,9 @@
         <f>IF(ISNUMBER(center_0!F16),0,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="1">
         <f>IF(ISNUMBER(center_0!G16),0,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISNUMBER(center_0!H16),0,"")</f>
@@ -7828,181 +7798,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),0,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <f>IF(ISNUMBER(center_0!G17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),0,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),0,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),0,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),0,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -8041,12 +7927,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -8057,10 +7937,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D46676C-6D47-439D-8E91-C7448FAFDD09}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8614,92 +8494,92 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!B13),center_0!B13+50,"")</f>
         <v/>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <f>IF(ISNUMBER(center_0!C13),center_0!C13+50,"")</f>
         <v>325</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!D13),center_0!D13+50,"")</f>
         <v/>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <f>IF(ISNUMBER(center_0!E13),center_0!E13+50,"")</f>
         <v>475</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <f>IF(ISNUMBER(center_0!F13),center_0!F13+50,"")</f>
         <v>570</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!G13),center_0!G13+50,"")</f>
         <v/>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <f>IF(ISNUMBER(center_0!H13),center_0!H13+50,"")</f>
         <v>670</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="9">
         <f>IF(ISNUMBER(center_0!I13),center_0!I13+50,"")</f>
         <v>790</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!J13),center_0!J13+50,"")</f>
         <v/>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="9">
         <f>IF(ISNUMBER(center_0!K13),center_0!K13+50,"")</f>
         <v>300</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <f>IF(ISNUMBER(center_0!L13),center_0!L13+50,"")</f>
         <v>475</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="9">
         <f>IF(ISNUMBER(center_0!M13),center_0!M13+50,"")</f>
         <v>600</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="N13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!N13),center_0!N13+50,"")</f>
         <v/>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="9">
         <f>IF(ISNUMBER(center_0!O13),center_0!O13+50,"")</f>
         <v>700</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="9">
         <f>IF(ISNUMBER(center_0!P13),center_0!P13+50,"")</f>
         <v>830</v>
       </c>
-      <c r="Q13" s="1" t="str">
+      <c r="Q13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!Q13),center_0!Q13+50,"")</f>
         <v/>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="R13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!R13),center_0!R13+50,"")</f>
         <v/>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="9">
         <f>IF(ISNUMBER(center_0!S13),center_0!S13+50,"")</f>
         <v>980</v>
       </c>
-      <c r="T13" s="1" t="str">
+      <c r="T13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!T13),center_0!T13+50,"")</f>
         <v/>
       </c>
-      <c r="U13" s="1" t="str">
+      <c r="U13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!U13),center_0!U13+50,"")</f>
         <v/>
       </c>
-      <c r="V13" s="1" t="str">
+      <c r="V13" s="9" t="str">
         <f>IF(ISNUMBER(center_0!V13),center_0!V13+50,"")</f>
         <v/>
       </c>
@@ -8707,20 +8587,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),center_0!B14+30,"")</f>
+        <v>125</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),center_0!C14+30,"")</f>
+        <v>275</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),center_0!D14+30,"")</f>
+        <v>410</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),center_0!E14+30,"")</f>
+        <v>530</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),center_0!F14+30,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),center_0!G14+30,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),center_0!H14+30,"")</f>
+        <v>665</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),center_0!I14+30,"")</f>
+        <v>815</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),center_0!J14+30,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),center_0!K14+30,"")</f>
+        <v>285</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),center_0!L14+30,"")</f>
+        <v>440</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),center_0!M14+30,"")</f>
+        <v>560</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),center_0!N14+30,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),center_0!O14+30,"")</f>
+        <v>700</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),center_0!P14+30,"")</f>
+        <v>820</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),center_0!Q14+30,"")</f>
+        <v>900</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),center_0!R14+30,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),center_0!S14+30,"")</f>
+        <v>990</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),center_0!T14+30,"")</f>
+        <v>120</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),center_0!U14+30,"")</f>
+        <v>240</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),center_0!V14+30,"")</f>
+        <v>285</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),center_0!B15+30,"")</f>
@@ -8798,19 +8755,19 @@
         <f>IF(ISNUMBER(center_0!T15),center_0!T15+30,"")</f>
         <v>120</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),center_0!U15+30,"")</f>
-        <v>240</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),center_0!V15+30,"")</f>
-        <v>285</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),center_0!B16+30,"")</f>
@@ -8832,9 +8789,9 @@
         <f>IF(ISNUMBER(center_0!F16),center_0!F16+30,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!G16),center_0!G16+30,"")</f>
-        <v/>
+      <c r="G16" s="1">
+        <f>IF(ISNUMBER(center_0!G16),center_0!G16+35,"")</f>
+        <v>660</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISNUMBER(center_0!H16),center_0!H16+30,"")</f>
@@ -8897,181 +8854,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),center_0!B17+30,"")</f>
-        <v>125</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),center_0!C17+30,"")</f>
-        <v>275</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),center_0!D17+30,"")</f>
-        <v>410</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),center_0!E17+30,"")</f>
-        <v>530</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),center_0!F17+30,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <f>IF(ISNUMBER(center_0!G17),center_0!G17+30,"")</f>
-        <v>650</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),center_0!H17+30,"")</f>
-        <v>665</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),center_0!I17+30,"")</f>
-        <v>815</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),center_0!J17+30,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),center_0!K17+30,"")</f>
-        <v>285</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),center_0!L17+30,"")</f>
-        <v>440</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),center_0!M17+30,"")</f>
-        <v>560</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),center_0!N17+30,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),center_0!O17+30,"")</f>
-        <v>700</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),center_0!P17+30,"")</f>
-        <v>820</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),center_0!Q17+30,"")</f>
-        <v>900</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),center_0!R17+30,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),center_0!S17+30,"")</f>
-        <v>990</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),center_0!T17+30,"")</f>
-        <v>120</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),center_0!U17+30,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),center_0!V17+30,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -9110,12 +8983,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>
@@ -9126,10 +8993,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A734E0C-7A4B-428A-95DC-306859B6AB0F}">
-  <dimension ref="A1:AV39"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9599,8 +9466,8 @@
         <v>szymanski2002</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(center_0!A13),"",center_0!A13)</f>
         <v>zhou2007</v>
       </c>
@@ -9608,20 +9475,97 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>IF(ISBLANK(center_0!A14),"",center_0!A14)</f>
-        <v>almarri2009b</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>dittmann2021a</v>
+      </c>
+      <c r="B14" s="1">
+        <f>IF(ISNUMBER(center_0!B14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(ISNUMBER(center_0!C14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <f>IF(ISNUMBER(center_0!D14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(ISNUMBER(center_0!E14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!F14),95,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!G14),95,"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(ISNUMBER(center_0!H14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(center_0!I14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!J14),95,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IF(ISNUMBER(center_0!K14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="L14" s="1">
+        <f>IF(ISNUMBER(center_0!L14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(ISNUMBER(center_0!M14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!N14),95,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1">
+        <f>IF(ISNUMBER(center_0!O14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="P14" s="1">
+        <f>IF(ISNUMBER(center_0!P14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>IF(ISNUMBER(center_0!Q14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>IF(ISNUMBER(center_0!R14),95,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f>IF(ISNUMBER(center_0!S14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="T14" s="1">
+        <f>IF(ISNUMBER(center_0!T14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="U14" s="1">
+        <f>IF(ISNUMBER(center_0!U14),95,"")</f>
+        <v>95</v>
+      </c>
+      <c r="V14" s="1">
+        <f>IF(ISNUMBER(center_0!V14),95,"")</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>IF(ISBLANK(center_0!A15),"",center_0!A15)</f>
-        <v>dittmann2021a</v>
+        <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
         <f>IF(ISNUMBER(center_0!B15),95,"")</f>
@@ -9699,19 +9643,19 @@
         <f>IF(ISNUMBER(center_0!T15),95,"")</f>
         <v>95</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!U15),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="V15" s="1">
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
         <f>IF(ISNUMBER(center_0!V15),95,"")</f>
-        <v>95</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(ISBLANK(center_0!A16),"",center_0!A16)</f>
-        <v>dittmann2021b</v>
+        <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
         <f>IF(ISNUMBER(center_0!B16),95,"")</f>
@@ -9733,9 +9677,8 @@
         <f>IF(ISNUMBER(center_0!F16),95,"")</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!G16),95,"")</f>
-        <v/>
+      <c r="G16" s="1">
+        <v>30</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISNUMBER(center_0!H16),95,"")</f>
@@ -9798,180 +9741,97 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v>dittmann2021c</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IF(ISNUMBER(center_0!B17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="C17" s="1">
-        <f>IF(ISNUMBER(center_0!C17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IF(ISNUMBER(center_0!D17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISNUMBER(center_0!E17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!F17),95,"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="1">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(center_0!H17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="I17" s="1">
-        <f>IF(ISNUMBER(center_0!I17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!J17),95,"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="1">
-        <f>IF(ISNUMBER(center_0!K17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IF(ISNUMBER(center_0!L17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(ISNUMBER(center_0!M17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!N17),95,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>IF(ISNUMBER(center_0!O17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(ISNUMBER(center_0!P17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>IF(ISNUMBER(center_0!Q17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!R17),95,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="1">
-        <f>IF(ISNUMBER(center_0!S17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IF(ISNUMBER(center_0!T17),95,"")</f>
-        <v>95</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!U17),95,"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNUMBER(center_0!V17),95,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>IF(ISBLANK(center_0!A18),"",center_0!A18)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>IF(ISBLANK(center_0!A19),"",center_0!A19)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(ISBLANK(center_0!A20),"",center_0!A20)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>IF(ISBLANK(center_0!A21),"",center_0!A21)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>IF(ISBLANK(center_0!A22),"",center_0!A22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>IF(ISBLANK(center_0!A23),"",center_0!A23)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f>IF(ISBLANK(center_0!A24),"",center_0!A24)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>IF(ISBLANK(center_0!A25),"",center_0!A25)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>IF(ISBLANK(center_0!A26),"",center_0!A26)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>IF(ISBLANK(center_0!A27),"",center_0!A27)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>IF(ISBLANK(center_0!A28),"",center_0!A28)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>IF(ISBLANK(center_0!A29),"",center_0!A29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>IF(ISBLANK(center_0!A30),"",center_0!A30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>IF(ISBLANK(center_0!A31),"",center_0!A31)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(ISBLANK(center_0!A32),"",center_0!A32)</f>
         <v/>
@@ -10010,12 +9870,6 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f>IF(ISBLANK(center_0!A38),"",center_0!A38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISBLANK(center_0!A39),"",center_0!A39)</f>
         <v/>
       </c>
     </row>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\weitere AC\Langenau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\TGA-FTIR-hyphenation-tool-kit-master_8PAC_washed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E615B73C-39E7-44AC-84EC-914591BCA982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1A934-A978-4D07-B6B4-0978BE1224A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
@@ -585,29 +585,29 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1244,29 +1244,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -2132,25 +2131,25 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -2786,29 +2785,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -3268,8 +3266,8 @@
         <v>dittmann2021a</v>
       </c>
       <c r="B14" s="1">
-        <f>IF(ISNUMBER(center_0!B14),47.5,"")</f>
-        <v>47.5</v>
+        <f>IF(ISNUMBER(center_0!B14),25,"")</f>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <f>IF(ISNUMBER(center_0!C14),47.5,"")</f>
@@ -3358,8 +3356,8 @@
         <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
-        <f>IF(ISNUMBER(center_0!B15),47.5,"")</f>
-        <v>47.5</v>
+        <f>IF(ISNUMBER(center_0!B15),25,"")</f>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <f>IF(ISNUMBER(center_0!C15),47.5,"")</f>
@@ -3448,8 +3446,8 @@
         <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
-        <f>IF(ISNUMBER(center_0!B16),47.5,"")</f>
-        <v>47.5</v>
+        <f>IF(ISNUMBER(center_0!B16),25,"")</f>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <f>IF(ISNUMBER(center_0!C16),47.5,"")</f>
@@ -3673,29 +3671,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -4557,29 +4554,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -5613,29 +5609,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -7052,29 +7047,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -7940,29 +7934,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -8996,29 +8989,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -9478,8 +9470,8 @@
         <v>dittmann2021a</v>
       </c>
       <c r="B14" s="1">
-        <f>IF(ISNUMBER(center_0!B14),95,"")</f>
-        <v>95</v>
+        <f>IF(ISNUMBER(center_0!B14),50,"")</f>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <f>IF(ISNUMBER(center_0!C14),95,"")</f>
@@ -9568,8 +9560,8 @@
         <v>dittmann2021b</v>
       </c>
       <c r="B15" s="1">
-        <f>IF(ISNUMBER(center_0!B15),95,"")</f>
-        <v>95</v>
+        <f>IF(ISNUMBER(center_0!B15),50,"")</f>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <f>IF(ISNUMBER(center_0!C15),95,"")</f>
@@ -9658,8 +9650,8 @@
         <v>dittmann2021c</v>
       </c>
       <c r="B16" s="1">
-        <f>IF(ISNUMBER(center_0!B16),95,"")</f>
-        <v>95</v>
+        <f>IF(ISNUMBER(center_0!B16),50,"")</f>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <f>IF(ISNUMBER(center_0!C16),95,"")</f>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\TGA-FTIR-hyphenation-tool-kit-master_8PAC_washed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1A934-A978-4D07-B6B4-0978BE1224A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B098804-8D70-4F4D-B274-B15540F2FFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
@@ -83,24 +83,6 @@
     <t>szymanski2002</t>
   </si>
   <si>
-    <t>carboxylic 1</t>
-  </si>
-  <si>
-    <t>carboxylic 2</t>
-  </si>
-  <si>
-    <t>lactones 1</t>
-  </si>
-  <si>
-    <t>lactones 2</t>
-  </si>
-  <si>
-    <t>carbonyls 1</t>
-  </si>
-  <si>
-    <t>carbonyls 2</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -108,9 +90,6 @@
   </si>
   <si>
     <t>almarri2009</t>
-  </si>
-  <si>
-    <t>carbonyl 1</t>
   </si>
   <si>
     <t>ducuosso2015</t>
@@ -137,21 +116,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>adsorbed-CO2</t>
-  </si>
-  <si>
-    <t>unassigned-CO2</t>
-  </si>
-  <si>
-    <t>adsorbed-H2O</t>
-  </si>
-  <si>
-    <t>unassigned-H2O 1</t>
-  </si>
-  <si>
-    <t>unassigned-H2O 2</t>
-  </si>
-  <si>
     <t>dittmann2021a</t>
   </si>
   <si>
@@ -159,6 +123,42 @@
   </si>
   <si>
     <t>dittmann2021c</t>
+  </si>
+  <si>
+    <t>adsorbed CO2</t>
+  </si>
+  <si>
+    <t>carboxylic acids_1</t>
+  </si>
+  <si>
+    <t>carboxylic acids_2</t>
+  </si>
+  <si>
+    <t>unassigned CO2</t>
+  </si>
+  <si>
+    <t>lactones_1</t>
+  </si>
+  <si>
+    <t>lactones_2</t>
+  </si>
+  <si>
+    <t>carbonyls_1</t>
+  </si>
+  <si>
+    <t>carbonyls_2</t>
+  </si>
+  <si>
+    <t>unassigned H2O_1</t>
+  </si>
+  <si>
+    <t>adsorbed H2O</t>
+  </si>
+  <si>
+    <t>unassigned H2O_2</t>
+  </si>
+  <si>
+    <t>carbonyls</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -268,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -585,44 +586,43 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -631,37 +631,37 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>10</v>
@@ -670,86 +670,86 @@
         <v>5</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>390</v>
@@ -934,34 +934,43 @@
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>263.66666666666663</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="10">
         <v>377.16666666666663</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>665.66666666666663</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>665.66666666666663</v>
       </c>
-      <c r="M9" s="1">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10">
         <v>665.66666666666663</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <v>699.5</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="10">
         <v>867.83333333333326</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="10">
         <v>1090</v>
       </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>280</v>
@@ -1083,7 +1092,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1136,7 +1145,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>95</v>
@@ -1183,7 +1192,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>95</v>
@@ -1244,28 +1253,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1276,15 +1285,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -1296,27 +1305,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -1332,11 +1341,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -1348,15 +1357,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -2131,28 +2140,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -2163,15 +2172,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -2183,27 +2192,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -2235,15 +2244,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -2564,7 +2573,7 @@
         <v>figueiredo2007</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -2619,7 +2628,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2631,7 +2640,7 @@
         <v>dittmann2021b</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -2640,7 +2649,7 @@
         <v>dittmann2021c</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2785,28 +2794,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -2817,15 +2826,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -2837,27 +2846,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -2889,15 +2898,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -3671,28 +3680,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -3703,15 +3712,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -3723,27 +3732,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -3759,11 +3768,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -3775,15 +3784,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -4554,28 +4563,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -4586,15 +4595,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -4606,27 +4615,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -4642,11 +4651,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -4658,15 +4667,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -5609,28 +5618,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -5641,15 +5650,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -5661,27 +5670,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -5697,11 +5706,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -5713,15 +5722,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -7047,28 +7056,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -7079,15 +7088,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -7099,27 +7108,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -7135,11 +7144,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -7151,15 +7160,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -7934,28 +7943,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -7966,15 +7975,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -7986,27 +7995,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -8022,11 +8031,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -8038,15 +8047,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>
@@ -8989,28 +8998,28 @@
   <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -9021,15 +9030,15 @@
       </c>
       <c r="B1" s="4" t="str">
         <f>IF(ISBLANK(center_0!B1),"",center_0!B1)</f>
-        <v>adsorbed-CO2</v>
+        <v>adsorbed CO2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(ISBLANK(center_0!C1),"",center_0!C1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>IF(ISBLANK(center_0!D1),"",center_0!D1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="E1" s="4" t="str">
         <f>IF(ISBLANK(center_0!E1),"",center_0!E1)</f>
@@ -9041,27 +9050,27 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>IF(ISBLANK(center_0!G1),"",center_0!G1)</f>
-        <v>unassigned-CO2</v>
+        <v>unassigned CO2</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>IF(ISBLANK(center_0!H1),"",center_0!H1)</f>
-        <v>lactones 1</v>
+        <v>lactones_1</v>
       </c>
       <c r="I1" s="4" t="str">
         <f>IF(ISBLANK(center_0!I1),"",center_0!I1)</f>
-        <v>lactones 2</v>
+        <v>lactones_2</v>
       </c>
       <c r="J1" s="4" t="str">
         <f>IF(ISBLANK(center_0!J1),"",center_0!J1)</f>
-        <v>carbonyl 1</v>
+        <v>carbonyls</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>IF(ISBLANK(center_0!K1),"",center_0!K1)</f>
-        <v>carboxylic 1</v>
+        <v>carboxylic acids_1</v>
       </c>
       <c r="L1" s="4" t="str">
         <f>IF(ISBLANK(center_0!L1),"",center_0!L1)</f>
-        <v>carboxylic 2</v>
+        <v>carboxylic acids_2</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>IF(ISBLANK(center_0!M1),"",center_0!M1)</f>
@@ -9077,11 +9086,11 @@
       </c>
       <c r="P1" s="4" t="str">
         <f>IF(ISBLANK(center_0!P1),"",center_0!P1)</f>
-        <v>carbonyls 1</v>
+        <v>carbonyls_1</v>
       </c>
       <c r="Q1" s="4" t="str">
         <f>IF(ISBLANK(center_0!Q1),"",center_0!Q1)</f>
-        <v>carbonyls 2</v>
+        <v>carbonyls_2</v>
       </c>
       <c r="R1" s="4" t="str">
         <f>IF(ISBLANK(center_0!R1),"",center_0!R1)</f>
@@ -9093,15 +9102,15 @@
       </c>
       <c r="T1" s="4" t="str">
         <f>IF(ISBLANK(center_0!T1),"",center_0!T1)</f>
-        <v>adsorbed-H2O</v>
+        <v>adsorbed H2O</v>
       </c>
       <c r="U1" s="4" t="str">
         <f>IF(ISBLANK(center_0!U1),"",center_0!U1)</f>
-        <v>unassigned-H2O 1</v>
+        <v>unassigned H2O_1</v>
       </c>
       <c r="V1" s="4" t="str">
         <f>IF(ISBLANK(center_0!V1),"",center_0!V1)</f>
-        <v>unassigned-H2O 2</v>
+        <v>unassigned H2O_2</v>
       </c>
       <c r="W1" s="4" t="str">
         <f>IF(ISBLANK(center_0!W1),"",center_0!W1)</f>

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\TGA-FTIR-hyphenation-tool-kit-master_8PAC_washed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B098804-8D70-4F4D-B274-B15540F2FFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73083D99-2309-4CA3-96FC-A6CD41B1B5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>ether</t>
   </si>
   <si>
-    <t>gorghulo2008</t>
-  </si>
-  <si>
     <t>szymanski2002</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>almarri2009</t>
-  </si>
-  <si>
-    <t>ducuosso2015</t>
   </si>
   <si>
     <t>hydroxyl</t>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>carbonyls</t>
+  </si>
+  <si>
+    <t>gorgulho2008</t>
+  </si>
+  <si>
+    <t>ducousso2015</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,16 +613,16 @@
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -631,37 +631,37 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>10</v>
@@ -670,86 +670,86 @@
         <v>5</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>390</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>257</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>280</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>427</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>95</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>95</v>
@@ -1671,7 +1671,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -2573,13 +2573,13 @@
         <v>figueiredo2007</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2640,7 +2640,7 @@
         <v>dittmann2021b</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
         <v>dittmann2021c</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -4094,7 +4094,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>IF(ISNUMBER(center_0!B4),center_0!B4-50,"")</f>
@@ -5083,7 +5083,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -6054,7 +6054,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -7474,7 +7474,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -7492,7 +7492,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -8361,7 +8361,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>IF(ISNUMBER(center_0!B4),center_0!B4+50,"")</f>
@@ -8463,7 +8463,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -9416,7 +9416,7 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>IF(ISBLANK(center_0!A4),"",center_0!A4)</f>
-        <v>ducuosso2015</v>
+        <v>ducousso2015</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -9434,7 +9434,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>IF(ISBLANK(center_0!A7),"",center_0!A7)</f>
-        <v>gorghulo2008</v>
+        <v>gorgulho2008</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\TGA-FTIR-hyphenation-tool-kit-master_8PAC_washed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73083D99-2309-4CA3-96FC-A6CD41B1B5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039EACE-F01F-4AD8-9AB9-9D745961F528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>figueiredo2007</t>
   </si>
   <si>
-    <t>li2011</t>
-  </si>
-  <si>
     <t>pyrones</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>gas</t>
-  </si>
-  <si>
-    <t>na2011</t>
   </si>
   <si>
     <t>almarri2009</t>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>ducousso2015</t>
+  </si>
+  <si>
+    <t>li2011b</t>
+  </si>
+  <si>
+    <t>li2011a</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64D511-D4ED-4E7F-BCBD-B5A2B90CC7A9}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -613,143 +613,143 @@
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>390</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>257</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>245</v>
@@ -932,83 +932,83 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
-        <v>263.66666666666663</v>
-      </c>
-      <c r="D9" s="10">
-        <v>377.16666666666663</v>
-      </c>
-      <c r="E9" s="10">
-        <v>665.66666666666663</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <v>665.66666666666663</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10">
-        <v>665.66666666666663</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10">
-        <v>699.5</v>
-      </c>
-      <c r="P9" s="10">
-        <v>867.83333333333326</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>1090</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>280</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+      <c r="E9" s="1">
+        <v>540</v>
+      </c>
+      <c r="H9" s="1">
+        <v>650</v>
+      </c>
+      <c r="I9" s="1">
+        <v>800</v>
+      </c>
+      <c r="K9" s="1">
+        <v>300</v>
+      </c>
+      <c r="L9" s="1">
+        <v>420</v>
+      </c>
+      <c r="M9" s="1">
+        <v>550</v>
+      </c>
+      <c r="O9" s="1">
+        <v>680</v>
+      </c>
+      <c r="P9" s="1">
+        <v>800</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1020</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>280</v>
-      </c>
-      <c r="D10" s="1">
-        <v>400</v>
-      </c>
-      <c r="E10" s="1">
-        <v>540</v>
-      </c>
-      <c r="H10" s="1">
-        <v>650</v>
-      </c>
-      <c r="I10" s="1">
-        <v>800</v>
-      </c>
-      <c r="K10" s="1">
-        <v>300</v>
-      </c>
-      <c r="L10" s="1">
-        <v>420</v>
-      </c>
-      <c r="M10" s="1">
-        <v>550</v>
-      </c>
-      <c r="O10" s="1">
-        <v>680</v>
-      </c>
-      <c r="P10" s="1">
-        <v>800</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1020</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>263.66666666666663</v>
+      </c>
+      <c r="D10" s="10">
+        <v>377.16666666666663</v>
+      </c>
+      <c r="E10" s="10">
+        <v>665.66666666666663</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <v>665.66666666666663</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
+        <v>665.66666666666663</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
+        <v>699.5</v>
+      </c>
+      <c r="P10" s="10">
+        <v>867.83333333333326</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1090</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>291</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>427</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="13" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9">
         <v>275</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>95</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>95</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>95</v>
@@ -1239,6 +1239,25 @@
       <c r="T16" s="1">
         <v>90</v>
       </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V13">
@@ -1695,19 +1714,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2573,7 +2592,7 @@
         <v>figueiredo2007</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -2585,19 +2604,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2628,7 +2647,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2640,7 +2659,7 @@
         <v>dittmann2021b</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -2649,7 +2668,7 @@
         <v>dittmann2021c</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -3236,19 +3255,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -4118,19 +4137,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -5089,19 +5108,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -6060,19 +6079,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -7498,19 +7517,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -8469,19 +8488,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -9440,19 +9459,19 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(ISBLANK(center_0!A8),"",center_0!A8)</f>
-        <v>li2011</v>
+        <v>li2011a</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>IF(ISBLANK(center_0!A9),"",center_0!A9)</f>
-        <v>morales2014</v>
+        <v>li2011b</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>IF(ISBLANK(center_0!A10),"",center_0!A10)</f>
-        <v>na2011</v>
+        <v>morales2014</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">

--- a/Fitting_parameter.xlsx
+++ b/Fitting_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\TGA-FTIR-hyphenation-tool-kit-master_8PAC_washed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UBA_Promotion\3_TGA_FTIR\TGA-FTIR-hyphenation-tool-kit\TGA_FTIR_tools\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039EACE-F01F-4AD8-9AB9-9D745961F528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7246F-FE6A-4196-B262-B706AA4F13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>li2011a</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1243,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1">
+        <v>380</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>255</v>
+      </c>
+      <c r="L17" s="3">
+        <v>410</v>
+      </c>
+      <c r="M17" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -2020,7 +2046,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2674,7 +2700,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -3560,7 +3586,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -4443,7 +4469,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -5498,7 +5524,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -6384,7 +6410,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -7823,7 +7849,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -8878,7 +8904,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -9764,7 +9790,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
